--- a/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.048540272461018</v>
+        <v>6.04854027246096</v>
       </c>
       <c r="E2">
-        <v>20.93874306252432</v>
+        <v>20.93874306252435</v>
       </c>
       <c r="F2">
-        <v>51.4019735177021</v>
+        <v>51.40197351770206</v>
       </c>
       <c r="G2">
-        <v>40.98754058663825</v>
+        <v>40.9875405866382</v>
       </c>
       <c r="H2">
-        <v>22.35429800384519</v>
+        <v>22.35429800384529</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>50.91934855820325</v>
+        <v>50.91934855820327</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.14512018990618</v>
+        <v>23.14512018990617</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.507214005015004</v>
+        <v>5.507214005015034</v>
       </c>
       <c r="E3">
-        <v>19.68899832015595</v>
+        <v>19.68899832015592</v>
       </c>
       <c r="F3">
-        <v>47.0800600002892</v>
+        <v>47.08006000028912</v>
       </c>
       <c r="G3">
-        <v>37.50492571669152</v>
+        <v>37.50492571669145</v>
       </c>
       <c r="H3">
-        <v>21.21287200828511</v>
+        <v>21.21287200828512</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>47.24023327264633</v>
+        <v>47.24023327264631</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.03561062673195</v>
+        <v>22.03561062673201</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.172268145199455</v>
+        <v>5.172268145199553</v>
       </c>
       <c r="E4">
-        <v>18.88123899834271</v>
+        <v>18.88123899834275</v>
       </c>
       <c r="F4">
-        <v>44.38282025942086</v>
+        <v>44.38282025942078</v>
       </c>
       <c r="G4">
-        <v>35.33052037792832</v>
+        <v>35.33052037792826</v>
       </c>
       <c r="H4">
-        <v>20.52329776638156</v>
+        <v>20.52329776638165</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>44.88501632806457</v>
+        <v>44.88501632806459</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.56943791127481</v>
+        <v>21.56943791127477</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.034694560427807</v>
+        <v>5.034694560427863</v>
       </c>
       <c r="E5">
-        <v>18.54197941426632</v>
+        <v>18.5419794142663</v>
       </c>
       <c r="F5">
-        <v>43.270285222478</v>
+        <v>43.27028522247799</v>
       </c>
       <c r="G5">
         <v>34.43330336775497</v>
       </c>
       <c r="H5">
-        <v>20.24511583572595</v>
+        <v>20.24511583572585</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>43.89977904037966</v>
+        <v>43.89977904037957</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.49117402398937</v>
+        <v>21.49117402398936</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.011774034206062</v>
+        <v>5.011774034205989</v>
       </c>
       <c r="E6">
-        <v>18.48503938130023</v>
+        <v>18.48503938130025</v>
       </c>
       <c r="F6">
-        <v>43.08468020009863</v>
+        <v>43.08468020009869</v>
       </c>
       <c r="G6">
-        <v>34.2835968243747</v>
+        <v>34.28359682437473</v>
       </c>
       <c r="H6">
-        <v>20.19909636464546</v>
+        <v>20.19909636464544</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.170417673488488</v>
+        <v>5.170417673488609</v>
       </c>
       <c r="E7">
-        <v>18.8767043461261</v>
+        <v>18.87670434612617</v>
       </c>
       <c r="F7">
-        <v>44.36787324920827</v>
+        <v>44.36787324920844</v>
       </c>
       <c r="G7">
-        <v>35.31846766928656</v>
+        <v>35.31846766928673</v>
       </c>
       <c r="H7">
-        <v>20.51953460100931</v>
+        <v>20.51953460100923</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>44.87183371963032</v>
+        <v>44.87183371963035</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.28195021255563</v>
+        <v>24.28195021255562</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.862136620240602</v>
+        <v>5.862136620240645</v>
       </c>
       <c r="E8">
-        <v>20.51624154081165</v>
+        <v>20.51624154081163</v>
       </c>
       <c r="F8">
-        <v>49.91917133027526</v>
+        <v>49.91917133027511</v>
       </c>
       <c r="G8">
-        <v>39.79283469609416</v>
+        <v>39.79283469609404</v>
       </c>
       <c r="H8">
         <v>21.95835504732575</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>49.66992487285617</v>
+        <v>49.6699248728561</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.28308398421522</v>
+        <v>28.28308398421524</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.223308840911537</v>
+        <v>7.22330884091155</v>
       </c>
       <c r="E9">
-        <v>23.41112147341149</v>
+        <v>23.41112147341146</v>
       </c>
       <c r="F9">
-        <v>60.60692135824402</v>
+        <v>60.60692135824394</v>
       </c>
       <c r="G9">
-        <v>48.40373260116084</v>
+        <v>48.40373260116078</v>
       </c>
       <c r="H9">
-        <v>25.0566793509075</v>
+        <v>25.05667935090749</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>58.38772588433775</v>
+        <v>58.38772588433769</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.99931485574746</v>
+        <v>30.99931485574741</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.274697549347493</v>
+        <v>8.274697549347433</v>
       </c>
       <c r="E10">
-        <v>25.34989116763853</v>
+        <v>25.34989116763845</v>
       </c>
       <c r="F10">
-        <v>68.63048631814708</v>
+        <v>68.63048631814664</v>
       </c>
       <c r="G10">
-        <v>54.87181494746528</v>
+        <v>54.87181494746495</v>
       </c>
       <c r="H10">
-        <v>27.7850825520207</v>
+        <v>27.7850825520206</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>64.50825766618452</v>
+        <v>64.50825766618432</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.19633578179536</v>
+        <v>32.19633578179533</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.781499396333873</v>
+        <v>8.781499396333812</v>
       </c>
       <c r="E11">
-        <v>26.1954336916801</v>
+        <v>26.19543369168016</v>
       </c>
       <c r="F11">
-        <v>72.42380909030641</v>
+        <v>72.4238090903068</v>
       </c>
       <c r="G11">
-        <v>57.93205803029425</v>
+        <v>57.9320580302945</v>
       </c>
       <c r="H11">
-        <v>29.03406011059387</v>
+        <v>29.03406011059401</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>67.27887817702769</v>
+        <v>67.27887817702786</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.645292779872</v>
+        <v>32.64529277987199</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.979841674583053</v>
+        <v>8.979841674582998</v>
       </c>
       <c r="E12">
-        <v>26.51110476402694</v>
+        <v>26.51110476402698</v>
       </c>
       <c r="F12">
-        <v>73.89509215775534</v>
+        <v>73.89509215775571</v>
       </c>
       <c r="G12">
-        <v>59.11950197441074</v>
+        <v>59.11950197441098</v>
       </c>
       <c r="H12">
-        <v>29.5102102365896</v>
+        <v>29.51021023658949</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>68.33241916818432</v>
+        <v>68.3324191681844</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.54876922553526</v>
+        <v>32.5487692255353</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.936789732990805</v>
+        <v>8.936789732990995</v>
       </c>
       <c r="E13">
-        <v>26.44330361985924</v>
+        <v>26.44330361985934</v>
       </c>
       <c r="F13">
-        <v>73.57637356436609</v>
+        <v>73.57637356436622</v>
       </c>
       <c r="G13">
-        <v>58.86224544289774</v>
+        <v>58.86224544289787</v>
       </c>
       <c r="H13">
-        <v>29.40747787103739</v>
+        <v>29.40747787103751</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>68.10519226791808</v>
+        <v>68.10519226791818</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.2333496480943</v>
+        <v>32.23334964809428</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.797670943338453</v>
+        <v>8.797670943338511</v>
       </c>
       <c r="E14">
-        <v>26.22148887710537</v>
+        <v>26.22148887710538</v>
       </c>
       <c r="F14">
         <v>72.54404824616255</v>
       </c>
       <c r="G14">
-        <v>58.02908981598905</v>
+        <v>58.02908981598907</v>
       </c>
       <c r="H14">
-        <v>29.073154201837</v>
+        <v>29.07315420183712</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>67.36541913893502</v>
+        <v>67.36541913893511</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.03962722595703</v>
+        <v>32.03962722595706</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.713381640288901</v>
+        <v>8.713381640288988</v>
       </c>
       <c r="E15">
-        <v>26.08506179130026</v>
+        <v>26.08506179130038</v>
       </c>
       <c r="F15">
-        <v>71.91679241881246</v>
+        <v>71.9167924188129</v>
       </c>
       <c r="G15">
-        <v>57.52292150756511</v>
+        <v>57.52292150756548</v>
       </c>
       <c r="H15">
-        <v>28.86886346382475</v>
+        <v>28.86886346382474</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>66.91309327097876</v>
+        <v>66.91309327097893</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.242326336808157</v>
+        <v>8.242326336808208</v>
       </c>
       <c r="E16">
-        <v>25.29395209447382</v>
+        <v>25.29395209447387</v>
       </c>
       <c r="F16">
-        <v>68.3865424467448</v>
+        <v>68.38654244674514</v>
       </c>
       <c r="G16">
-        <v>54.67507265639231</v>
+        <v>54.67507265639263</v>
       </c>
       <c r="H16">
-        <v>27.70377349612983</v>
+        <v>27.70377349612991</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>64.3273959905701</v>
+        <v>64.32739599057024</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.22463928503827</v>
+        <v>30.22463928503826</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.962006518502385</v>
+        <v>7.962006518502331</v>
       </c>
       <c r="E17">
         <v>24.7996930145918</v>
       </c>
       <c r="F17">
-        <v>66.26584205508566</v>
+        <v>66.26584205508567</v>
       </c>
       <c r="G17">
-        <v>52.9649820601344</v>
+        <v>52.96498206013438</v>
       </c>
       <c r="H17">
-        <v>26.99224740787114</v>
+        <v>26.99224740787118</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>62.74136233498972</v>
+        <v>62.74136233498976</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.82072668426128</v>
+        <v>29.82072668426127</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.80327557184399</v>
+        <v>7.803275571843914</v>
       </c>
       <c r="E18">
-        <v>24.51192045799065</v>
+        <v>24.51192045799072</v>
       </c>
       <c r="F18">
-        <v>65.05844750089291</v>
+        <v>65.0584475008928</v>
       </c>
       <c r="G18">
-        <v>51.99156377551627</v>
+        <v>51.99156377551616</v>
       </c>
       <c r="H18">
-        <v>26.58357024475654</v>
+        <v>26.58357024475666</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>61.82733915289536</v>
+        <v>61.82733915289533</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.68329865045419</v>
+        <v>29.68329865045428</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.74990655177615</v>
+        <v>7.749906551776185</v>
       </c>
       <c r="E19">
-        <v>24.4138711409167</v>
+        <v>24.41387114091675</v>
       </c>
       <c r="F19">
-        <v>64.65143292840587</v>
+        <v>64.65143292840622</v>
       </c>
       <c r="G19">
-        <v>51.66345330005938</v>
+        <v>51.66345330005964</v>
       </c>
       <c r="H19">
-        <v>26.44524793351702</v>
+        <v>26.44524793351697</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>61.51741012303214</v>
+        <v>61.51741012303221</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.29908298635555</v>
+        <v>30.29908298635551</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.991574521722184</v>
+        <v>7.991574521722238</v>
       </c>
       <c r="E20">
-        <v>24.85266483567087</v>
+        <v>24.85266483567077</v>
       </c>
       <c r="F20">
-        <v>66.49023004093078</v>
+        <v>66.49023004093047</v>
       </c>
       <c r="G20">
-        <v>53.14590221477798</v>
+        <v>53.1459022147778</v>
       </c>
       <c r="H20">
-        <v>27.06791890147869</v>
+        <v>27.06791890147861</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>62.91034513110078</v>
+        <v>62.91034513110064</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32610118516162</v>
+        <v>32.32610118516171</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.838334877806837</v>
+        <v>8.83833487780678</v>
       </c>
       <c r="E21">
-        <v>26.28675577159238</v>
+        <v>26.28675577159239</v>
       </c>
       <c r="F21">
-        <v>72.84617419369434</v>
+        <v>72.84617419369455</v>
       </c>
       <c r="G21">
-        <v>58.27291085814804</v>
+        <v>58.27291085814819</v>
       </c>
       <c r="H21">
-        <v>29.17124552569505</v>
+        <v>29.17124552569516</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>67.58252454124413</v>
+        <v>67.58252454124425</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.62665650572714</v>
+        <v>33.62665650572703</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.431270454031283</v>
+        <v>9.43127045403112</v>
       </c>
       <c r="E22">
-        <v>27.19843661777636</v>
+        <v>27.19843661777639</v>
       </c>
       <c r="F22">
-        <v>77.21576146559612</v>
+        <v>77.21576146559616</v>
       </c>
       <c r="G22">
-        <v>61.80067709030749</v>
+        <v>61.80067709030745</v>
       </c>
       <c r="H22">
-        <v>30.56622929654662</v>
+        <v>30.56622929654647</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>70.66705607835777</v>
+        <v>70.66705607835772</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93418391402679</v>
+        <v>32.93418391402681</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.110085269755976</v>
+        <v>9.110085269756025</v>
       </c>
       <c r="E23">
-        <v>26.71381553690943</v>
+        <v>26.71381553690951</v>
       </c>
       <c r="F23">
-        <v>74.85714923623308</v>
+        <v>74.8571492362333</v>
       </c>
       <c r="G23">
-        <v>59.89612099003546</v>
+        <v>59.89612099003567</v>
       </c>
       <c r="H23">
-        <v>29.81888382389084</v>
+        <v>29.81888382389102</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>69.01496213203636</v>
+        <v>69.01496213203652</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.26543924703692</v>
+        <v>30.26543924703691</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.978199420812615</v>
+        <v>7.978199420812706</v>
       </c>
       <c r="E24">
-        <v>24.8287275865505</v>
+        <v>24.82872758655049</v>
       </c>
       <c r="F24">
-        <v>66.38874836925388</v>
+        <v>66.38874836925393</v>
       </c>
       <c r="G24">
-        <v>53.06407868076943</v>
+        <v>53.06407868076948</v>
       </c>
       <c r="H24">
-        <v>27.03370675056672</v>
+        <v>27.03370675056683</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>62.83395526582035</v>
+        <v>62.83395526582043</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.24253141262393</v>
+        <v>27.24253141262395</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.850453824502376</v>
+        <v>6.850453824502313</v>
       </c>
       <c r="E25">
-        <v>22.66190789830238</v>
+        <v>22.66190789830236</v>
       </c>
       <c r="F25">
-        <v>57.71226854847118</v>
+        <v>57.71226854847114</v>
       </c>
       <c r="G25">
-        <v>46.07137660837889</v>
+        <v>46.07137660837886</v>
       </c>
       <c r="H25">
-        <v>24.07524026175013</v>
+        <v>24.0752402617501</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>56.09157333811967</v>
+        <v>56.09157333811963</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.04854027246096</v>
+        <v>6.048540272461018</v>
       </c>
       <c r="E2">
-        <v>20.93874306252435</v>
+        <v>20.93874306252432</v>
       </c>
       <c r="F2">
-        <v>51.40197351770206</v>
+        <v>51.4019735177021</v>
       </c>
       <c r="G2">
-        <v>40.9875405866382</v>
+        <v>40.98754058663825</v>
       </c>
       <c r="H2">
-        <v>22.35429800384529</v>
+        <v>22.35429800384519</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>50.91934855820327</v>
+        <v>50.91934855820325</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.14512018990617</v>
+        <v>23.14512018990618</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.507214005015034</v>
+        <v>5.507214005015004</v>
       </c>
       <c r="E3">
-        <v>19.68899832015592</v>
+        <v>19.68899832015595</v>
       </c>
       <c r="F3">
-        <v>47.08006000028912</v>
+        <v>47.0800600002892</v>
       </c>
       <c r="G3">
-        <v>37.50492571669145</v>
+        <v>37.50492571669152</v>
       </c>
       <c r="H3">
-        <v>21.21287200828512</v>
+        <v>21.21287200828511</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>47.24023327264631</v>
+        <v>47.24023327264633</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.03561062673201</v>
+        <v>22.03561062673195</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.172268145199553</v>
+        <v>5.172268145199455</v>
       </c>
       <c r="E4">
-        <v>18.88123899834275</v>
+        <v>18.88123899834271</v>
       </c>
       <c r="F4">
-        <v>44.38282025942078</v>
+        <v>44.38282025942086</v>
       </c>
       <c r="G4">
-        <v>35.33052037792826</v>
+        <v>35.33052037792832</v>
       </c>
       <c r="H4">
-        <v>20.52329776638165</v>
+        <v>20.52329776638156</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>44.88501632806459</v>
+        <v>44.88501632806457</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.56943791127477</v>
+        <v>21.56943791127481</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.034694560427863</v>
+        <v>5.034694560427807</v>
       </c>
       <c r="E5">
-        <v>18.5419794142663</v>
+        <v>18.54197941426632</v>
       </c>
       <c r="F5">
-        <v>43.27028522247799</v>
+        <v>43.270285222478</v>
       </c>
       <c r="G5">
         <v>34.43330336775497</v>
       </c>
       <c r="H5">
-        <v>20.24511583572585</v>
+        <v>20.24511583572595</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>43.89977904037957</v>
+        <v>43.89977904037966</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.49117402398936</v>
+        <v>21.49117402398937</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.011774034205989</v>
+        <v>5.011774034206062</v>
       </c>
       <c r="E6">
-        <v>18.48503938130025</v>
+        <v>18.48503938130023</v>
       </c>
       <c r="F6">
-        <v>43.08468020009869</v>
+        <v>43.08468020009863</v>
       </c>
       <c r="G6">
-        <v>34.28359682437473</v>
+        <v>34.2835968243747</v>
       </c>
       <c r="H6">
-        <v>20.19909636464544</v>
+        <v>20.19909636464546</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.170417673488609</v>
+        <v>5.170417673488488</v>
       </c>
       <c r="E7">
-        <v>18.87670434612617</v>
+        <v>18.8767043461261</v>
       </c>
       <c r="F7">
-        <v>44.36787324920844</v>
+        <v>44.36787324920827</v>
       </c>
       <c r="G7">
-        <v>35.31846766928673</v>
+        <v>35.31846766928656</v>
       </c>
       <c r="H7">
-        <v>20.51953460100923</v>
+        <v>20.51953460100931</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>44.87183371963035</v>
+        <v>44.87183371963032</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.28195021255562</v>
+        <v>24.28195021255563</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.862136620240645</v>
+        <v>5.862136620240602</v>
       </c>
       <c r="E8">
-        <v>20.51624154081163</v>
+        <v>20.51624154081165</v>
       </c>
       <c r="F8">
-        <v>49.91917133027511</v>
+        <v>49.91917133027526</v>
       </c>
       <c r="G8">
-        <v>39.79283469609404</v>
+        <v>39.79283469609416</v>
       </c>
       <c r="H8">
         <v>21.95835504732575</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>49.6699248728561</v>
+        <v>49.66992487285617</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.28308398421524</v>
+        <v>28.28308398421522</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.22330884091155</v>
+        <v>7.223308840911537</v>
       </c>
       <c r="E9">
-        <v>23.41112147341146</v>
+        <v>23.41112147341149</v>
       </c>
       <c r="F9">
-        <v>60.60692135824394</v>
+        <v>60.60692135824402</v>
       </c>
       <c r="G9">
-        <v>48.40373260116078</v>
+        <v>48.40373260116084</v>
       </c>
       <c r="H9">
-        <v>25.05667935090749</v>
+        <v>25.0566793509075</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>58.38772588433769</v>
+        <v>58.38772588433775</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.99931485574741</v>
+        <v>30.99931485574746</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.274697549347433</v>
+        <v>8.274697549347493</v>
       </c>
       <c r="E10">
-        <v>25.34989116763845</v>
+        <v>25.34989116763853</v>
       </c>
       <c r="F10">
-        <v>68.63048631814664</v>
+        <v>68.63048631814708</v>
       </c>
       <c r="G10">
-        <v>54.87181494746495</v>
+        <v>54.87181494746528</v>
       </c>
       <c r="H10">
-        <v>27.7850825520206</v>
+        <v>27.7850825520207</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>64.50825766618432</v>
+        <v>64.50825766618452</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.19633578179533</v>
+        <v>32.19633578179536</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.781499396333812</v>
+        <v>8.781499396333873</v>
       </c>
       <c r="E11">
-        <v>26.19543369168016</v>
+        <v>26.1954336916801</v>
       </c>
       <c r="F11">
-        <v>72.4238090903068</v>
+        <v>72.42380909030641</v>
       </c>
       <c r="G11">
-        <v>57.9320580302945</v>
+        <v>57.93205803029425</v>
       </c>
       <c r="H11">
-        <v>29.03406011059401</v>
+        <v>29.03406011059387</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>67.27887817702786</v>
+        <v>67.27887817702769</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.64529277987199</v>
+        <v>32.645292779872</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.979841674582998</v>
+        <v>8.979841674583053</v>
       </c>
       <c r="E12">
-        <v>26.51110476402698</v>
+        <v>26.51110476402694</v>
       </c>
       <c r="F12">
-        <v>73.89509215775571</v>
+        <v>73.89509215775534</v>
       </c>
       <c r="G12">
-        <v>59.11950197441098</v>
+        <v>59.11950197441074</v>
       </c>
       <c r="H12">
-        <v>29.51021023658949</v>
+        <v>29.5102102365896</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>68.3324191681844</v>
+        <v>68.33241916818432</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.5487692255353</v>
+        <v>32.54876922553526</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.936789732990995</v>
+        <v>8.936789732990805</v>
       </c>
       <c r="E13">
-        <v>26.44330361985934</v>
+        <v>26.44330361985924</v>
       </c>
       <c r="F13">
-        <v>73.57637356436622</v>
+        <v>73.57637356436609</v>
       </c>
       <c r="G13">
-        <v>58.86224544289787</v>
+        <v>58.86224544289774</v>
       </c>
       <c r="H13">
-        <v>29.40747787103751</v>
+        <v>29.40747787103739</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>68.10519226791818</v>
+        <v>68.10519226791808</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.23334964809428</v>
+        <v>32.2333496480943</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.797670943338511</v>
+        <v>8.797670943338453</v>
       </c>
       <c r="E14">
-        <v>26.22148887710538</v>
+        <v>26.22148887710537</v>
       </c>
       <c r="F14">
         <v>72.54404824616255</v>
       </c>
       <c r="G14">
-        <v>58.02908981598907</v>
+        <v>58.02908981598905</v>
       </c>
       <c r="H14">
-        <v>29.07315420183712</v>
+        <v>29.073154201837</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>67.36541913893511</v>
+        <v>67.36541913893502</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.03962722595706</v>
+        <v>32.03962722595703</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.713381640288988</v>
+        <v>8.713381640288901</v>
       </c>
       <c r="E15">
-        <v>26.08506179130038</v>
+        <v>26.08506179130026</v>
       </c>
       <c r="F15">
-        <v>71.9167924188129</v>
+        <v>71.91679241881246</v>
       </c>
       <c r="G15">
-        <v>57.52292150756548</v>
+        <v>57.52292150756511</v>
       </c>
       <c r="H15">
-        <v>28.86886346382474</v>
+        <v>28.86886346382475</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>66.91309327097893</v>
+        <v>66.91309327097876</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.242326336808208</v>
+        <v>8.242326336808157</v>
       </c>
       <c r="E16">
-        <v>25.29395209447387</v>
+        <v>25.29395209447382</v>
       </c>
       <c r="F16">
-        <v>68.38654244674514</v>
+        <v>68.3865424467448</v>
       </c>
       <c r="G16">
-        <v>54.67507265639263</v>
+        <v>54.67507265639231</v>
       </c>
       <c r="H16">
-        <v>27.70377349612991</v>
+        <v>27.70377349612983</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>64.32739599057024</v>
+        <v>64.3273959905701</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.22463928503826</v>
+        <v>30.22463928503827</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.962006518502331</v>
+        <v>7.962006518502385</v>
       </c>
       <c r="E17">
         <v>24.7996930145918</v>
       </c>
       <c r="F17">
-        <v>66.26584205508567</v>
+        <v>66.26584205508566</v>
       </c>
       <c r="G17">
-        <v>52.96498206013438</v>
+        <v>52.9649820601344</v>
       </c>
       <c r="H17">
-        <v>26.99224740787118</v>
+        <v>26.99224740787114</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>62.74136233498976</v>
+        <v>62.74136233498972</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.82072668426127</v>
+        <v>29.82072668426128</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.803275571843914</v>
+        <v>7.80327557184399</v>
       </c>
       <c r="E18">
-        <v>24.51192045799072</v>
+        <v>24.51192045799065</v>
       </c>
       <c r="F18">
-        <v>65.0584475008928</v>
+        <v>65.05844750089291</v>
       </c>
       <c r="G18">
-        <v>51.99156377551616</v>
+        <v>51.99156377551627</v>
       </c>
       <c r="H18">
-        <v>26.58357024475666</v>
+        <v>26.58357024475654</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>61.82733915289533</v>
+        <v>61.82733915289536</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.68329865045428</v>
+        <v>29.68329865045419</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.749906551776185</v>
+        <v>7.74990655177615</v>
       </c>
       <c r="E19">
-        <v>24.41387114091675</v>
+        <v>24.4138711409167</v>
       </c>
       <c r="F19">
-        <v>64.65143292840622</v>
+        <v>64.65143292840587</v>
       </c>
       <c r="G19">
-        <v>51.66345330005964</v>
+        <v>51.66345330005938</v>
       </c>
       <c r="H19">
-        <v>26.44524793351697</v>
+        <v>26.44524793351702</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>61.51741012303221</v>
+        <v>61.51741012303214</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.29908298635551</v>
+        <v>30.29908298635555</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.991574521722238</v>
+        <v>7.991574521722184</v>
       </c>
       <c r="E20">
-        <v>24.85266483567077</v>
+        <v>24.85266483567087</v>
       </c>
       <c r="F20">
-        <v>66.49023004093047</v>
+        <v>66.49023004093078</v>
       </c>
       <c r="G20">
-        <v>53.1459022147778</v>
+        <v>53.14590221477798</v>
       </c>
       <c r="H20">
-        <v>27.06791890147861</v>
+        <v>27.06791890147869</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>62.91034513110064</v>
+        <v>62.91034513110078</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32610118516171</v>
+        <v>32.32610118516162</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.83833487780678</v>
+        <v>8.838334877806837</v>
       </c>
       <c r="E21">
-        <v>26.28675577159239</v>
+        <v>26.28675577159238</v>
       </c>
       <c r="F21">
-        <v>72.84617419369455</v>
+        <v>72.84617419369434</v>
       </c>
       <c r="G21">
-        <v>58.27291085814819</v>
+        <v>58.27291085814804</v>
       </c>
       <c r="H21">
-        <v>29.17124552569516</v>
+        <v>29.17124552569505</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>67.58252454124425</v>
+        <v>67.58252454124413</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.62665650572703</v>
+        <v>33.62665650572714</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.43127045403112</v>
+        <v>9.431270454031283</v>
       </c>
       <c r="E22">
-        <v>27.19843661777639</v>
+        <v>27.19843661777636</v>
       </c>
       <c r="F22">
-        <v>77.21576146559616</v>
+        <v>77.21576146559612</v>
       </c>
       <c r="G22">
-        <v>61.80067709030745</v>
+        <v>61.80067709030749</v>
       </c>
       <c r="H22">
-        <v>30.56622929654647</v>
+        <v>30.56622929654662</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>70.66705607835772</v>
+        <v>70.66705607835777</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93418391402681</v>
+        <v>32.93418391402679</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.110085269756025</v>
+        <v>9.110085269755976</v>
       </c>
       <c r="E23">
-        <v>26.71381553690951</v>
+        <v>26.71381553690943</v>
       </c>
       <c r="F23">
-        <v>74.8571492362333</v>
+        <v>74.85714923623308</v>
       </c>
       <c r="G23">
-        <v>59.89612099003567</v>
+        <v>59.89612099003546</v>
       </c>
       <c r="H23">
-        <v>29.81888382389102</v>
+        <v>29.81888382389084</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>69.01496213203652</v>
+        <v>69.01496213203636</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.26543924703691</v>
+        <v>30.26543924703692</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.978199420812706</v>
+        <v>7.978199420812615</v>
       </c>
       <c r="E24">
-        <v>24.82872758655049</v>
+        <v>24.8287275865505</v>
       </c>
       <c r="F24">
-        <v>66.38874836925393</v>
+        <v>66.38874836925388</v>
       </c>
       <c r="G24">
-        <v>53.06407868076948</v>
+        <v>53.06407868076943</v>
       </c>
       <c r="H24">
-        <v>27.03370675056683</v>
+        <v>27.03370675056672</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>62.83395526582043</v>
+        <v>62.83395526582035</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.24253141262395</v>
+        <v>27.24253141262393</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.850453824502313</v>
+        <v>6.850453824502376</v>
       </c>
       <c r="E25">
-        <v>22.66190789830236</v>
+        <v>22.66190789830238</v>
       </c>
       <c r="F25">
-        <v>57.71226854847114</v>
+        <v>57.71226854847118</v>
       </c>
       <c r="G25">
-        <v>46.07137660837886</v>
+        <v>46.07137660837889</v>
       </c>
       <c r="H25">
-        <v>24.0752402617501</v>
+        <v>24.07524026175013</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>56.09157333811963</v>
+        <v>56.09157333811967</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.86322610121648</v>
+        <v>24.8620418252552</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.048540272461018</v>
+        <v>6.036209316573163</v>
       </c>
       <c r="E2">
-        <v>20.93874306252432</v>
+        <v>20.92220813251695</v>
       </c>
       <c r="F2">
-        <v>51.4019735177021</v>
+        <v>51.34855036785471</v>
       </c>
       <c r="G2">
-        <v>40.98754058663825</v>
+        <v>41.04153284307471</v>
       </c>
       <c r="H2">
-        <v>22.35429800384519</v>
+        <v>40.60439309926482</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>22.36719867190734</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>50.91934855820325</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>50.90011202278215</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.14512018990618</v>
+        <v>23.14416622657883</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.507214005015004</v>
+        <v>5.496147929406602</v>
       </c>
       <c r="E3">
-        <v>19.68899832015595</v>
+        <v>19.67387744120737</v>
       </c>
       <c r="F3">
-        <v>47.0800600002892</v>
+        <v>47.03244732784214</v>
       </c>
       <c r="G3">
-        <v>37.50492571669152</v>
+        <v>37.55541185542424</v>
       </c>
       <c r="H3">
-        <v>21.21287200828511</v>
+        <v>37.17487419196424</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>21.22484157735563</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>47.24023327264633</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>47.22318326800908</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.03561062673195</v>
+        <v>22.03478361709823</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.172268145199455</v>
+        <v>5.161966624218326</v>
       </c>
       <c r="E4">
-        <v>18.88123899834271</v>
+        <v>18.86701189154235</v>
       </c>
       <c r="F4">
-        <v>44.38282025942086</v>
+        <v>44.33864319025557</v>
       </c>
       <c r="G4">
-        <v>35.33052037792832</v>
+        <v>35.37867155601466</v>
       </c>
       <c r="H4">
-        <v>20.52329776638156</v>
+        <v>35.03842534724502</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>20.53460315405403</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>44.88501632806457</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>44.86925028851746</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.56943791127481</v>
+        <v>21.5686598558102</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.034694560427807</v>
+        <v>5.024703671569174</v>
       </c>
       <c r="E5">
-        <v>18.54197941426632</v>
+        <v>18.52812479658825</v>
       </c>
       <c r="F5">
-        <v>43.270285222478</v>
+        <v>43.22748675234497</v>
       </c>
       <c r="G5">
-        <v>34.43330336775497</v>
+        <v>34.48046212644264</v>
       </c>
       <c r="H5">
-        <v>20.24511583572595</v>
+        <v>34.15814923863549</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>20.25612882516805</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>43.89977904037966</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>43.88452671637286</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.49117402398937</v>
+        <v>21.49040395062255</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.011774034206062</v>
+        <v>5.001834721897112</v>
       </c>
       <c r="E6">
-        <v>18.48503938130023</v>
+        <v>18.47124716363519</v>
       </c>
       <c r="F6">
-        <v>43.08468020009863</v>
+        <v>43.04210963870369</v>
       </c>
       <c r="G6">
-        <v>34.2835968243747</v>
+        <v>34.3305884402542</v>
       </c>
       <c r="H6">
-        <v>20.19909636464546</v>
+        <v>34.0113488755321</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>20.21005953143225</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>43.73460970220843</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>43.71944223522613</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.02938088393789</v>
+        <v>22.02855454479227</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.170417673488488</v>
+        <v>5.160120343136602</v>
       </c>
       <c r="E7">
-        <v>18.8767043461261</v>
+        <v>18.86248222711574</v>
       </c>
       <c r="F7">
-        <v>44.36787324920827</v>
+        <v>44.3237148457331</v>
       </c>
       <c r="G7">
-        <v>35.31846766928656</v>
+        <v>35.36660562338253</v>
       </c>
       <c r="H7">
-        <v>20.51953460100931</v>
+        <v>35.02659495934478</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>20.53083613137904</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>44.87183371963032</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>44.85607464074734</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.28195021255563</v>
+        <v>24.28084893641023</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.862136620240602</v>
+        <v>5.850245748257878</v>
       </c>
       <c r="E8">
-        <v>20.51624154081165</v>
+        <v>20.50019008698232</v>
       </c>
       <c r="F8">
-        <v>49.91917133027526</v>
+        <v>49.86778718253039</v>
       </c>
       <c r="G8">
-        <v>39.79283469609416</v>
+        <v>39.84565931076391</v>
       </c>
       <c r="H8">
-        <v>21.95835504732575</v>
+        <v>39.42695259475337</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>21.97095482380541</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>49.66992487285617</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>49.65145799391822</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.28308398421522</v>
+        <v>28.28127400487748</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.223308840911537</v>
+        <v>7.208062644255405</v>
       </c>
       <c r="E9">
-        <v>23.41112147341149</v>
+        <v>23.39157855441945</v>
       </c>
       <c r="F9">
-        <v>60.60692135824402</v>
+        <v>60.53955267816834</v>
       </c>
       <c r="G9">
-        <v>48.40373260116084</v>
+        <v>48.46396195809153</v>
       </c>
       <c r="H9">
-        <v>25.0566793509075</v>
+        <v>47.93056003393577</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>25.06972356549698</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>58.38772588433775</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>58.36314909448765</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.99931485574746</v>
+        <v>30.99675849019923</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.274697549347493</v>
+        <v>8.256547028121288</v>
       </c>
       <c r="E10">
-        <v>25.34989116763853</v>
+        <v>25.32762147727076</v>
       </c>
       <c r="F10">
-        <v>68.63048631814708</v>
+        <v>68.54853795826901</v>
       </c>
       <c r="G10">
-        <v>54.87181494746528</v>
+        <v>54.93555239661067</v>
       </c>
       <c r="H10">
-        <v>27.7850825520207</v>
+        <v>54.33729353980956</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>27.79812895024711</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>64.50825766618452</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>64.47795416448606</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.19633578179536</v>
+        <v>32.19333773268063</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.781499396333873</v>
+        <v>8.76180290952381</v>
       </c>
       <c r="E11">
-        <v>26.1954336916801</v>
+        <v>26.17179807983627</v>
       </c>
       <c r="F11">
-        <v>72.42380909030641</v>
+        <v>72.33385598773745</v>
       </c>
       <c r="G11">
-        <v>57.93205803029425</v>
+        <v>57.99656057002593</v>
       </c>
       <c r="H11">
-        <v>29.03406011059387</v>
+        <v>57.37219370808497</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>29.04688972414159</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>67.27887817702769</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>67.24537364024297</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.645292779872</v>
+        <v>32.64210434668676</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.979841674583053</v>
+        <v>8.959506891806814</v>
       </c>
       <c r="E12">
-        <v>26.51110476402694</v>
+        <v>26.48691981548413</v>
       </c>
       <c r="F12">
-        <v>73.89509215775534</v>
+        <v>73.80178988869646</v>
       </c>
       <c r="G12">
-        <v>59.11950197441074</v>
+        <v>59.18410390620488</v>
       </c>
       <c r="H12">
-        <v>29.5102102365896</v>
+        <v>58.55027398565903</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>29.52291306276819</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>68.33241916818432</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>68.29756463864811</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.54876922553526</v>
+        <v>32.54562302181904</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.936789732990805</v>
+        <v>8.916595253403703</v>
       </c>
       <c r="E13">
-        <v>26.44330361985924</v>
+        <v>26.41923873600863</v>
       </c>
       <c r="F13">
-        <v>73.57637356436609</v>
+        <v>73.48380957742069</v>
       </c>
       <c r="G13">
-        <v>58.86224544289774</v>
+        <v>58.92683616617812</v>
       </c>
       <c r="H13">
-        <v>29.40747787103739</v>
+        <v>58.29502654929025</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>29.42021030552286</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>68.10519226791808</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>68.07063584071952</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.2333496480943</v>
+        <v>32.23033646839698</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.797670943338453</v>
+        <v>8.777923171133157</v>
       </c>
       <c r="E14">
-        <v>26.22148887710537</v>
+        <v>26.19780882820638</v>
       </c>
       <c r="F14">
-        <v>72.54404824616255</v>
+        <v>72.4538269642848</v>
       </c>
       <c r="G14">
-        <v>58.02908981598905</v>
+        <v>58.09360494742947</v>
       </c>
       <c r="H14">
-        <v>29.073154201837</v>
+        <v>57.46845145867289</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>29.08597438962258</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>67.36541913893502</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>67.33180672628259</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.03962722595703</v>
+        <v>32.0366921697494</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.713381640288901</v>
+        <v>8.693899761452974</v>
       </c>
       <c r="E15">
-        <v>26.08506179130026</v>
+        <v>26.06161271346328</v>
       </c>
       <c r="F15">
-        <v>71.91679241881246</v>
+        <v>71.82795975867784</v>
       </c>
       <c r="G15">
-        <v>57.52292150756511</v>
+        <v>57.5873625510846</v>
       </c>
       <c r="H15">
-        <v>28.86886346382475</v>
+        <v>56.96633926674832</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>28.88173103389614</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>66.91309327097876</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>66.88003900615</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.9204037164767</v>
+        <v>30.9178735539052</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.242326336808157</v>
+        <v>8.224270848641705</v>
       </c>
       <c r="E16">
-        <v>25.29395209447382</v>
+        <v>25.27176813161748</v>
       </c>
       <c r="F16">
-        <v>68.3865424467448</v>
+        <v>68.30508094101798</v>
       </c>
       <c r="G16">
-        <v>54.67507265639231</v>
+        <v>54.73873840433481</v>
       </c>
       <c r="H16">
-        <v>27.70377349612983</v>
+        <v>54.14224865062703</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>27.71682871868017</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>64.3273959905701</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>64.29728594916855</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.22463928503827</v>
+        <v>30.22232681266566</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.962006518502385</v>
+        <v>7.944757466263382</v>
       </c>
       <c r="E17">
-        <v>24.7996930145918</v>
+        <v>24.77824541664282</v>
       </c>
       <c r="F17">
-        <v>66.26584205508566</v>
+        <v>66.18848630628274</v>
       </c>
       <c r="G17">
-        <v>52.9649820601344</v>
+        <v>53.02792266176499</v>
       </c>
       <c r="H17">
-        <v>26.99224740787114</v>
+        <v>52.44730804138311</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>27.00535479288678</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>62.74136233498972</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>62.71287787410373</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.82072668426128</v>
+        <v>29.81853050537388</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.80327557184399</v>
+        <v>7.786470904394065</v>
       </c>
       <c r="E18">
-        <v>24.51192045799065</v>
+        <v>24.49088574023731</v>
       </c>
       <c r="F18">
-        <v>65.05844750089291</v>
+        <v>64.98333409346999</v>
       </c>
       <c r="G18">
-        <v>51.99156377551627</v>
+        <v>52.05401508837557</v>
       </c>
       <c r="H18">
-        <v>26.58357024475654</v>
+        <v>51.48285487428649</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>26.59668824525527</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>61.82733915289536</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>61.79973791151367</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.68329865045419</v>
+        <v>29.68114049578817</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.74990655177615</v>
+        <v>7.733249443233457</v>
       </c>
       <c r="E19">
-        <v>24.4138711409167</v>
+        <v>24.39297469002067</v>
       </c>
       <c r="F19">
-        <v>64.65143292840587</v>
+        <v>64.57706084474243</v>
       </c>
       <c r="G19">
-        <v>51.66345330005938</v>
+        <v>51.72572799397814</v>
       </c>
       <c r="H19">
-        <v>26.44524793351702</v>
+        <v>51.15782635207236</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>26.45836648412702</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>61.51741012303214</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>61.49010014598588</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.29908298635555</v>
+        <v>30.29674830852636</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.991574521722184</v>
+        <v>7.974241746700216</v>
       </c>
       <c r="E20">
-        <v>24.85266483567087</v>
+        <v>24.83114002925162</v>
       </c>
       <c r="F20">
-        <v>66.49023004093078</v>
+        <v>66.4124502074595</v>
       </c>
       <c r="G20">
-        <v>53.14590221477798</v>
+        <v>53.20892784726831</v>
       </c>
       <c r="H20">
-        <v>27.06791890147869</v>
+        <v>52.6265902722823</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>27.08102281180035</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>62.91034513110078</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>62.88169326151781</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32610118516162</v>
+        <v>32.32304965670006</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.838334877806837</v>
+        <v>8.818457565561951</v>
       </c>
       <c r="E21">
-        <v>26.28675577159238</v>
+        <v>26.26296371704537</v>
       </c>
       <c r="F21">
-        <v>72.84617419369434</v>
+        <v>72.75527480481301</v>
       </c>
       <c r="G21">
-        <v>58.27291085814804</v>
+        <v>58.33745419358338</v>
       </c>
       <c r="H21">
-        <v>29.17124552569505</v>
+        <v>57.71033469104473</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>29.18404130345471</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>67.58252454124413</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>67.54863918305912</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.62665650572714</v>
+        <v>33.62299247990259</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.431270454031283</v>
+        <v>9.409399532794421</v>
       </c>
       <c r="E22">
-        <v>27.19843661777636</v>
+        <v>27.17296059656565</v>
       </c>
       <c r="F22">
-        <v>77.21576146559612</v>
+        <v>77.11430265112084</v>
       </c>
       <c r="G22">
-        <v>61.80067709030749</v>
+        <v>61.86501959184106</v>
       </c>
       <c r="H22">
-        <v>30.56622929654662</v>
+        <v>61.21106420636379</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>30.57854860680153</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>70.66705607835777</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>70.62888996166367</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93418391402679</v>
+        <v>32.93086454473651</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.110085269755976</v>
+        <v>9.089319796193966</v>
       </c>
       <c r="E23">
-        <v>26.71381553690943</v>
+        <v>26.68926434908612</v>
       </c>
       <c r="F23">
-        <v>74.85714923623308</v>
+        <v>74.76157344309357</v>
       </c>
       <c r="G23">
-        <v>59.89612099003546</v>
+        <v>59.96072033052569</v>
       </c>
       <c r="H23">
-        <v>29.81888382389084</v>
+        <v>59.32088877650155</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>29.83148986702869</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>69.01496213203636</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>68.97918783352506</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.26543924703692</v>
+        <v>30.26311463534573</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.978199420812615</v>
+        <v>7.960904555483076</v>
       </c>
       <c r="E24">
-        <v>24.8287275865505</v>
+        <v>24.80723771777031</v>
       </c>
       <c r="F24">
-        <v>66.38874836925388</v>
+        <v>66.31116062458577</v>
       </c>
       <c r="G24">
-        <v>53.06407868076943</v>
+        <v>53.12706609182894</v>
       </c>
       <c r="H24">
-        <v>27.03370675056672</v>
+        <v>52.54550643950267</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>27.04681229127842</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>62.83395526582035</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>62.80537923828866</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.24253141262393</v>
+        <v>27.2409408331569</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.850453824502376</v>
+        <v>6.836163309912361</v>
       </c>
       <c r="E25">
-        <v>22.66190789830238</v>
+        <v>22.64331704565879</v>
       </c>
       <c r="F25">
-        <v>57.71226854847118</v>
+        <v>57.64955243534222</v>
       </c>
       <c r="G25">
-        <v>46.07137660837889</v>
+        <v>46.12985562988676</v>
       </c>
       <c r="H25">
-        <v>24.07524026175013</v>
+        <v>45.62377660990764</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>24.08920292384548</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>56.09157333811967</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>56.0687933756945</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.8620418252552</v>
+        <v>7.284466243200378</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.036209316573163</v>
+        <v>6.160671122483658</v>
       </c>
       <c r="E2">
-        <v>20.92220813251695</v>
+        <v>6.625993758077755</v>
       </c>
       <c r="F2">
-        <v>51.34855036785471</v>
+        <v>75.08098989755739</v>
       </c>
       <c r="G2">
-        <v>41.04153284307471</v>
+        <v>1.943894630141649</v>
       </c>
       <c r="H2">
-        <v>40.60439309926482</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>22.36719867190734</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.344298489686689</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>63.45936238513369</v>
       </c>
       <c r="L2">
-        <v>50.90011202278215</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>11.25955242322891</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.14416622657883</v>
+        <v>6.916876737564576</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.496147929406602</v>
+        <v>5.603211306922884</v>
       </c>
       <c r="E3">
-        <v>19.67387744120737</v>
+        <v>6.483278028577113</v>
       </c>
       <c r="F3">
-        <v>47.03244732784214</v>
+        <v>69.40847230389771</v>
       </c>
       <c r="G3">
-        <v>37.55541185542424</v>
+        <v>1.98363913995529</v>
       </c>
       <c r="H3">
-        <v>37.17487419196424</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>21.22484157735563</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.108026619930157</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>58.16069265347728</v>
       </c>
       <c r="L3">
-        <v>47.22318326800908</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>11.70495458725684</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.03478361709823</v>
+        <v>6.685765494078731</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.161966624218326</v>
+        <v>5.266792229708285</v>
       </c>
       <c r="E4">
-        <v>18.86701189154235</v>
+        <v>6.40375105418767</v>
       </c>
       <c r="F4">
-        <v>44.33864319025557</v>
+        <v>66.07191933611992</v>
       </c>
       <c r="G4">
-        <v>35.37867155601466</v>
+        <v>2.007146406570328</v>
       </c>
       <c r="H4">
-        <v>35.03842534724502</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>20.53460315405403</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.978931661434432</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>54.8869495247408</v>
       </c>
       <c r="L4">
-        <v>44.86925028851746</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>11.96988025995804</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.5686598558102</v>
+        <v>6.590303766421883</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.024703671569174</v>
+        <v>5.130176850876348</v>
       </c>
       <c r="E5">
-        <v>18.52812479658825</v>
+        <v>6.373104685034773</v>
       </c>
       <c r="F5">
-        <v>43.22748675234497</v>
+        <v>64.7340856359527</v>
       </c>
       <c r="G5">
-        <v>34.48046212644264</v>
+        <v>2.016585338685382</v>
       </c>
       <c r="H5">
-        <v>34.15814923863549</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>20.25612882516805</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.929723468854998</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>53.54121779085259</v>
       </c>
       <c r="L5">
-        <v>43.88452671637286</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>12.07649072300525</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.49040395062255</v>
+        <v>6.574377931240615</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.001834721897112</v>
+        <v>5.107497163984229</v>
       </c>
       <c r="E6">
-        <v>18.47124716363519</v>
+        <v>6.368115703650846</v>
       </c>
       <c r="F6">
-        <v>43.04210963870369</v>
+        <v>64.51307924004192</v>
       </c>
       <c r="G6">
-        <v>34.3305884402542</v>
+        <v>2.018146208363027</v>
       </c>
       <c r="H6">
-        <v>34.0113488755321</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>20.21005953143225</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.921742868171803</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>53.31690221615196</v>
       </c>
       <c r="L6">
-        <v>43.71944223522613</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>12.0941310288406</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.02855454479227</v>
+        <v>6.684483126285741</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.160120343136602</v>
+        <v>5.264948954112532</v>
       </c>
       <c r="E7">
-        <v>18.86248222711574</v>
+        <v>6.403330919799679</v>
       </c>
       <c r="F7">
-        <v>44.3237148457331</v>
+        <v>66.05379685410573</v>
       </c>
       <c r="G7">
-        <v>35.36660562338253</v>
+        <v>2.007274177774351</v>
       </c>
       <c r="H7">
-        <v>35.02659495934478</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>20.53083613137904</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.978254952560958</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>54.868854888784</v>
       </c>
       <c r="L7">
-        <v>44.85607464074734</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>11.97132261485325</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.28084893641023</v>
+        <v>7.158879905765161</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.850245748257878</v>
+        <v>5.966534054613085</v>
       </c>
       <c r="E8">
-        <v>20.50019008698232</v>
+        <v>6.574908307779441</v>
       </c>
       <c r="F8">
-        <v>49.86778718253039</v>
+        <v>73.06506769176693</v>
       </c>
       <c r="G8">
-        <v>39.84565931076391</v>
+        <v>1.957844616716227</v>
       </c>
       <c r="H8">
-        <v>39.42695259475337</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>21.97095482380541</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.259080061814586</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>61.63192863360612</v>
       </c>
       <c r="L8">
-        <v>49.65145799391822</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>11.41546957067109</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.28127400487748</v>
+        <v>8.045080444686942</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.208062644255405</v>
+        <v>7.461246259484176</v>
       </c>
       <c r="E9">
-        <v>23.39157855441945</v>
+        <v>6.995665231485095</v>
       </c>
       <c r="F9">
-        <v>60.53955267816834</v>
+        <v>89.045897861097</v>
       </c>
       <c r="G9">
-        <v>48.46396195809153</v>
+        <v>1.84768727258602</v>
       </c>
       <c r="H9">
-        <v>47.93056003393577</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>25.06972356549698</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.980702114898248</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>75.21306152720696</v>
       </c>
       <c r="L9">
-        <v>58.36314909448765</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>10.19997905236618</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.99675849019923</v>
+        <v>8.761810051591402</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.256547028121288</v>
+        <v>8.847529225013286</v>
       </c>
       <c r="E10">
-        <v>25.32762147727076</v>
+        <v>7.41542198128159</v>
       </c>
       <c r="F10">
-        <v>68.54853795826901</v>
+        <v>103.7242117142596</v>
       </c>
       <c r="G10">
-        <v>54.93555239661067</v>
+        <v>1.740645175830176</v>
       </c>
       <c r="H10">
-        <v>54.33729353980956</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>27.79812895024711</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.965107050523013</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>86.81786894289067</v>
       </c>
       <c r="L10">
-        <v>64.47795416448606</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>9.061130277820686</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.19333773268063</v>
+        <v>9.107897698886759</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.76180290952381</v>
+        <v>9.715462257852206</v>
       </c>
       <c r="E11">
-        <v>26.17179807983627</v>
+        <v>7.677356053627199</v>
       </c>
       <c r="F11">
-        <v>72.33385598773745</v>
+        <v>112.6763926085546</v>
       </c>
       <c r="G11">
-        <v>57.99656057002593</v>
+        <v>1.671835080532337</v>
       </c>
       <c r="H11">
-        <v>57.37219370808497</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>29.04688972414159</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.704556643927962</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>93.60451892301779</v>
       </c>
       <c r="L11">
-        <v>67.24537364024297</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>8.354470298400027</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.64210434668676</v>
+        <v>9.241782349333892</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.959506891806814</v>
+        <v>10.14792657124744</v>
       </c>
       <c r="E12">
-        <v>26.48691981548413</v>
+        <v>7.805003555768758</v>
       </c>
       <c r="F12">
-        <v>73.80178988869646</v>
+        <v>117.0452502661363</v>
       </c>
       <c r="G12">
-        <v>59.18410390620488</v>
+        <v>1.637181725037496</v>
       </c>
       <c r="H12">
-        <v>58.55027398565903</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>29.52291306276819</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.06005307249506</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>96.84832239449157</v>
       </c>
       <c r="L12">
-        <v>68.29756463864811</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>8.006421953807093</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.54562302181904</v>
+        <v>9.212645985515012</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.916595253403703</v>
+        <v>10.04643011075475</v>
       </c>
       <c r="E13">
-        <v>26.41923873600863</v>
+        <v>7.775280718085893</v>
       </c>
       <c r="F13">
-        <v>73.48380957742069</v>
+        <v>116.025997946214</v>
       </c>
       <c r="G13">
-        <v>58.92683616617812</v>
+        <v>1.645332030231655</v>
       </c>
       <c r="H13">
-        <v>58.29502654929025</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>29.42021030552286</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.977418373178754</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>96.09529202592059</v>
       </c>
       <c r="L13">
-        <v>68.07063584071952</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>8.087807345859655</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.23033646839698</v>
+        <v>9.118802452215222</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.777923171133157</v>
+        <v>9.747833246302056</v>
       </c>
       <c r="E14">
-        <v>26.19780882820638</v>
+        <v>7.686995439538006</v>
       </c>
       <c r="F14">
-        <v>72.4538269642848</v>
+        <v>113.0057007883882</v>
       </c>
       <c r="G14">
-        <v>58.09360494742947</v>
+        <v>1.6692483624582</v>
       </c>
       <c r="H14">
-        <v>57.46845145867289</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>29.08597438962258</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.731471415825967</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>93.85050815600702</v>
       </c>
       <c r="L14">
-        <v>67.33180672628259</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>8.328308079511507</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.0366921697494</v>
+        <v>9.061924086056759</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.693899761452974</v>
+        <v>9.583401638639501</v>
       </c>
       <c r="E15">
-        <v>26.06161271346328</v>
+        <v>7.637908513157238</v>
       </c>
       <c r="F15">
-        <v>71.82795975867784</v>
+        <v>111.3292959630167</v>
       </c>
       <c r="G15">
-        <v>57.5873625510846</v>
+        <v>1.682374410994586</v>
       </c>
       <c r="H15">
-        <v>56.96633926674832</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>28.88173103389614</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.594251652458878</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>92.59565920766518</v>
       </c>
       <c r="L15">
-        <v>66.88003900615</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>8.461368836826775</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.9178735539052</v>
+        <v>8.739273136659861</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.224270848641705</v>
+        <v>8.798751662923516</v>
       </c>
       <c r="E16">
-        <v>25.27176813161748</v>
+        <v>7.400572742173154</v>
       </c>
       <c r="F16">
-        <v>68.30508094101798</v>
+        <v>103.2147187236676</v>
       </c>
       <c r="G16">
-        <v>54.73873840433481</v>
+        <v>1.74447674548043</v>
       </c>
       <c r="H16">
-        <v>54.14224865062703</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>27.71682871868017</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.922551601275893</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>86.42553631772414</v>
       </c>
       <c r="L16">
-        <v>64.29728594916855</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>9.10108040957704</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.22232681266566</v>
+        <v>8.541326624655815</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.944757466263382</v>
+        <v>8.397438539594109</v>
       </c>
       <c r="E17">
-        <v>24.77824541664282</v>
+        <v>7.278297960257713</v>
       </c>
       <c r="F17">
-        <v>66.18848630628274</v>
+        <v>99.00078666657794</v>
       </c>
       <c r="G17">
-        <v>53.02792266176499</v>
+        <v>1.77583451178257</v>
       </c>
       <c r="H17">
-        <v>52.44730804138311</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>27.00535479288678</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.568488624532591</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>83.15349680461607</v>
       </c>
       <c r="L17">
-        <v>62.71287787410373</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>9.43036698106345</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.81853050537388</v>
+        <v>8.426858258140097</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.786470904394065</v>
+        <v>8.183860070088764</v>
       </c>
       <c r="E18">
-        <v>24.49088574023731</v>
+        <v>7.213309596298354</v>
       </c>
       <c r="F18">
-        <v>64.98333409346999</v>
+        <v>96.74344823088302</v>
       </c>
       <c r="G18">
-        <v>52.05401508837557</v>
+        <v>1.792394649788482</v>
       </c>
       <c r="H18">
-        <v>51.48285487428649</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>26.59668824525527</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.377215575176221</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>81.37996740371214</v>
       </c>
       <c r="L18">
-        <v>61.79973791151367</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>9.605915629274365</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.68114049578817</v>
+        <v>8.387962021976302</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.733249443233457</v>
+        <v>8.113862131669885</v>
       </c>
       <c r="E19">
-        <v>24.39297469002067</v>
+        <v>7.192049483643059</v>
       </c>
       <c r="F19">
-        <v>64.57706084474243</v>
+        <v>96.00163562997419</v>
       </c>
       <c r="G19">
-        <v>51.72572799397814</v>
+        <v>1.797801482999085</v>
       </c>
       <c r="H19">
-        <v>51.15782635207236</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>26.45836648412702</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.332503526837792</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>80.79384335681161</v>
       </c>
       <c r="L19">
-        <v>61.49010014598588</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>9.663474198112022</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.29674830852636</v>
+        <v>8.562453079662927</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.974241746700216</v>
+        <v>8.438201501624167</v>
       </c>
       <c r="E20">
-        <v>24.83114002925162</v>
+        <v>7.290715313429589</v>
       </c>
       <c r="F20">
-        <v>66.4124502074595</v>
+        <v>99.43051701852899</v>
       </c>
       <c r="G20">
-        <v>53.20892784726831</v>
+        <v>1.772663431295622</v>
       </c>
       <c r="H20">
-        <v>52.6265902722823</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>27.08102281180035</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.604771117808918</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>83.48944666066697</v>
       </c>
       <c r="L20">
-        <v>62.88169326151781</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>9.396880372551413</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32304965670006</v>
+        <v>9.146216343194716</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.818457565561951</v>
+        <v>9.831168344271891</v>
       </c>
       <c r="E21">
-        <v>26.26296371704537</v>
+        <v>7.711752575079965</v>
       </c>
       <c r="F21">
-        <v>72.75527480481301</v>
+        <v>113.8518063218785</v>
       </c>
       <c r="G21">
-        <v>58.33745419358338</v>
+        <v>1.662583480955563</v>
       </c>
       <c r="H21">
-        <v>57.71033469104473</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>29.18404130345471</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.800535094910305</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>94.48141112181247</v>
       </c>
       <c r="L21">
-        <v>67.54863918305912</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>8.261034293113722</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.62299247990259</v>
+        <v>9.146216343194716</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.409399532794421</v>
+        <v>9.831168344271891</v>
       </c>
       <c r="E22">
-        <v>27.17296059656565</v>
+        <v>7.711752575079965</v>
       </c>
       <c r="F22">
-        <v>77.11430265112084</v>
+        <v>113.8518063218785</v>
       </c>
       <c r="G22">
-        <v>61.86501959184106</v>
+        <v>1.662583480955563</v>
       </c>
       <c r="H22">
-        <v>61.21106420636379</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>30.57854860680153</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.800535094910305</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>94.48141112181247</v>
       </c>
       <c r="L22">
-        <v>70.62888996166367</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>8.261034293113722</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93086454473651</v>
+        <v>9.146216343194716</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.089319796193966</v>
+        <v>9.831168344271891</v>
       </c>
       <c r="E23">
-        <v>26.68926434908612</v>
+        <v>7.711752575079965</v>
       </c>
       <c r="F23">
-        <v>74.76157344309357</v>
+        <v>113.8518063218785</v>
       </c>
       <c r="G23">
-        <v>59.96072033052569</v>
+        <v>1.662583480955563</v>
       </c>
       <c r="H23">
-        <v>59.32088877650155</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>29.83148986702869</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.800535094910305</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>94.48141112181247</v>
       </c>
       <c r="L23">
-        <v>68.97918783352506</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>8.261034293113722</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.26311463534573</v>
+        <v>9.146216343194716</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.960904555483076</v>
+        <v>9.831168344271891</v>
       </c>
       <c r="E24">
-        <v>24.80723771777031</v>
+        <v>7.711752575079965</v>
       </c>
       <c r="F24">
-        <v>66.31116062458577</v>
+        <v>113.8518063218785</v>
       </c>
       <c r="G24">
-        <v>53.12706609182894</v>
+        <v>1.662583480955563</v>
       </c>
       <c r="H24">
-        <v>52.54550643950267</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>27.04681229127842</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.800535094910305</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>94.48141112181247</v>
       </c>
       <c r="L24">
-        <v>62.80537923828866</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>8.261034293113722</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.2409408331569</v>
+        <v>9.146216343194716</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.836163309912361</v>
+        <v>9.831168344271891</v>
       </c>
       <c r="E25">
-        <v>22.64331704565879</v>
+        <v>7.711752575079965</v>
       </c>
       <c r="F25">
-        <v>57.64955243534222</v>
+        <v>113.8518063218785</v>
       </c>
       <c r="G25">
-        <v>46.12985562988676</v>
+        <v>1.662583480955563</v>
       </c>
       <c r="H25">
-        <v>45.62377660990764</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>24.08920292384548</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.800535094910305</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>94.48141112181247</v>
       </c>
       <c r="L25">
-        <v>56.0687933756945</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>8.261034293113722</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.284466243200378</v>
+        <v>12.80679947013164</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.160671122483658</v>
+        <v>4.698502778793453</v>
       </c>
       <c r="E2">
-        <v>6.625993758077755</v>
+        <v>12.08622101970317</v>
       </c>
       <c r="F2">
-        <v>75.08098989755739</v>
+        <v>19.59522447107164</v>
       </c>
       <c r="G2">
-        <v>1.943894630141649</v>
+        <v>2.086386301305466</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.344298489686689</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>63.45936238513369</v>
+        <v>13.46250939250525</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.723526039530561</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.00290064620091</v>
       </c>
       <c r="N2">
-        <v>11.25955242322891</v>
+        <v>13.68235614414783</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.73845639846135</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.916876737564576</v>
+        <v>12.27838856989838</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.603211306922884</v>
+        <v>4.564919949182086</v>
       </c>
       <c r="E3">
-        <v>6.483278028577113</v>
+        <v>12.21150588874668</v>
       </c>
       <c r="F3">
-        <v>69.40847230389771</v>
+        <v>19.12826446701755</v>
       </c>
       <c r="G3">
-        <v>1.98363913995529</v>
+        <v>2.091054241550984</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.108026619930157</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>58.16069265347728</v>
+        <v>12.79175758392846</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.543273931433332</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.746890367921084</v>
       </c>
       <c r="N3">
-        <v>11.70495458725684</v>
+        <v>13.88991398318861</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.59209054125303</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.685765494078731</v>
+        <v>11.94809246785357</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.266792229708285</v>
+        <v>4.480330621098529</v>
       </c>
       <c r="E4">
-        <v>6.40375105418767</v>
+        <v>12.29177842656985</v>
       </c>
       <c r="F4">
-        <v>66.07191933611992</v>
+        <v>18.8520938006682</v>
       </c>
       <c r="G4">
-        <v>2.007146406570328</v>
+        <v>2.094014715344274</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.978931661434432</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>54.8869495247408</v>
+        <v>12.36083525874886</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.431881177400206</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.59044365401898</v>
       </c>
       <c r="N4">
-        <v>11.96988025995804</v>
+        <v>14.02035524521117</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.5139350542854</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.590303766421883</v>
+        <v>11.81222998199684</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.130176850876348</v>
+        <v>4.445241894823201</v>
       </c>
       <c r="E5">
-        <v>6.373104685034773</v>
+        <v>12.3253327181641</v>
       </c>
       <c r="F5">
-        <v>64.7340856359527</v>
+        <v>18.74230645537495</v>
       </c>
       <c r="G5">
-        <v>2.016585338685382</v>
+        <v>2.095245324947382</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.929723468854998</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>53.54121779085259</v>
+        <v>12.18053306082421</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.386372559527804</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.526962943980882</v>
       </c>
       <c r="N5">
-        <v>12.07649072300525</v>
+        <v>14.07428634690885</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.48497288156918</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.574377931240615</v>
+        <v>11.78960026797602</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.107497163984229</v>
+        <v>4.439378988858885</v>
       </c>
       <c r="E6">
-        <v>6.368115703650846</v>
+        <v>12.33095530478639</v>
       </c>
       <c r="F6">
-        <v>64.51307924004192</v>
+        <v>18.72424557164164</v>
       </c>
       <c r="G6">
-        <v>2.018146208363027</v>
+        <v>2.095451141307979</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.921742868171803</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>53.31690221615196</v>
+        <v>12.15031361428341</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.378810920663633</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.516441028985811</v>
       </c>
       <c r="N6">
-        <v>12.0941310288406</v>
+        <v>14.08328898150482</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.480336241912</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.684483126285741</v>
+        <v>11.94626500692051</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.264948954112532</v>
+        <v>4.479859865158242</v>
       </c>
       <c r="E7">
-        <v>6.403330919799679</v>
+        <v>12.2922275384487</v>
       </c>
       <c r="F7">
-        <v>66.05379685410573</v>
+        <v>18.85060188688157</v>
       </c>
       <c r="G7">
-        <v>2.007274177774351</v>
+        <v>2.094031213212062</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.978254952560958</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>54.868854888784</v>
+        <v>12.35842251444184</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.431267809276044</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.589586312514193</v>
       </c>
       <c r="N7">
-        <v>11.97132261485325</v>
+        <v>14.02107941302129</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.51353285422689</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.158879905765161</v>
+        <v>12.6259343319779</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.966534054613085</v>
+        <v>4.652992682954933</v>
       </c>
       <c r="E8">
-        <v>6.574908307779441</v>
+        <v>12.12872502689507</v>
       </c>
       <c r="F8">
-        <v>73.06506769176693</v>
+        <v>19.43209178870944</v>
       </c>
       <c r="G8">
-        <v>1.957844616716227</v>
+        <v>2.087976516080337</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.259080061814586</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>61.63192863360612</v>
+        <v>13.23524695628193</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.661561701732174</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.914524050796206</v>
       </c>
       <c r="N8">
-        <v>11.41546957067109</v>
+        <v>13.75331232182632</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.68552506854651</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.045080444686942</v>
+        <v>13.90445924298679</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.461246259484176</v>
+        <v>4.971016490245388</v>
       </c>
       <c r="E9">
-        <v>6.995665231485095</v>
+        <v>11.83462442205628</v>
       </c>
       <c r="F9">
-        <v>89.045897861097</v>
+        <v>20.65131533309803</v>
       </c>
       <c r="G9">
-        <v>1.84768727258602</v>
+        <v>2.076829487823034</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.980702114898248</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>75.21306152720696</v>
+        <v>14.79998695523431</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.104853915092041</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.55406054972019</v>
       </c>
       <c r="N9">
-        <v>10.19997905236618</v>
+        <v>13.25102728883551</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>16.11802728932821</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.761810051591402</v>
+        <v>14.80175086273734</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.847529225013286</v>
+        <v>5.190264232004524</v>
       </c>
       <c r="E10">
-        <v>7.41542198128159</v>
+        <v>11.63469925389123</v>
       </c>
       <c r="F10">
-        <v>103.7242117142596</v>
+        <v>21.58882232601836</v>
       </c>
       <c r="G10">
-        <v>1.740645175830176</v>
+        <v>2.069049725283907</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.965107050523013</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>86.81786894289067</v>
+        <v>15.85207290125238</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.422334005449009</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.02089127591772</v>
       </c>
       <c r="N10">
-        <v>9.061130277820686</v>
+        <v>12.89442991197335</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.49650492697516</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.107897698886759</v>
+        <v>15.19937082332627</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.715462257852206</v>
+        <v>5.28664980950826</v>
       </c>
       <c r="E11">
-        <v>7.677356053627199</v>
+        <v>11.54726050957396</v>
       </c>
       <c r="F11">
-        <v>112.6763926085546</v>
+        <v>22.02309587077533</v>
       </c>
       <c r="G11">
-        <v>1.671835080532337</v>
+        <v>2.065591881216633</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.704556643927962</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>93.60451892301779</v>
+        <v>16.30913622028182</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.61500458221311</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.23177016923426</v>
       </c>
       <c r="N11">
-        <v>8.354470298400027</v>
+        <v>12.73455937420389</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.68231433141963</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.241782349333892</v>
+        <v>15.34832528438795</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.14792657124744</v>
+        <v>5.322650425915752</v>
       </c>
       <c r="E12">
-        <v>7.805003555768758</v>
+        <v>11.51465581440688</v>
       </c>
       <c r="F12">
-        <v>117.0452502661363</v>
+        <v>22.18856647748108</v>
       </c>
       <c r="G12">
-        <v>1.637181725037496</v>
+        <v>2.06429349887728</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.06005307249506</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>96.84832239449157</v>
+        <v>16.47910060089085</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.690283729363795</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.31134949942297</v>
       </c>
       <c r="N12">
-        <v>8.006421953807093</v>
+        <v>12.67432821545902</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.75466519424063</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.212645985515012</v>
+        <v>15.31631847988783</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.04643011075475</v>
+        <v>5.314919462335435</v>
       </c>
       <c r="E13">
-        <v>7.775280718085893</v>
+        <v>11.52165525472209</v>
       </c>
       <c r="F13">
-        <v>116.025997946214</v>
+        <v>22.15288552010836</v>
       </c>
       <c r="G13">
-        <v>1.645332030231655</v>
+        <v>2.064572649029256</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.977418373178754</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>96.09529202592059</v>
+        <v>16.4426344860356</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.674133779183903</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.29422386276528</v>
       </c>
       <c r="N13">
-        <v>8.087807345859655</v>
+        <v>12.68728684373275</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.73899428473575</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.118802452215222</v>
+        <v>15.21165826562372</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.747833246302056</v>
+        <v>5.289621680357339</v>
       </c>
       <c r="E14">
-        <v>7.686995439538006</v>
+        <v>11.54456793756782</v>
       </c>
       <c r="F14">
-        <v>113.0057007883882</v>
+        <v>22.03668932172756</v>
       </c>
       <c r="G14">
-        <v>1.6692483624582</v>
+        <v>2.065484845359728</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.731471415825967</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>93.85050815600702</v>
+        <v>16.32318180379201</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.621226134222978</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.23832307284751</v>
       </c>
       <c r="N14">
-        <v>8.328308079511507</v>
+        <v>12.72959811451357</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.68822667532211</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.061924086056759</v>
+        <v>15.14733790120817</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.583401638639501</v>
+        <v>5.274060681136718</v>
       </c>
       <c r="E15">
-        <v>7.637908513157238</v>
+        <v>11.55866864439518</v>
       </c>
       <c r="F15">
-        <v>111.3292959630167</v>
+        <v>21.96564590086138</v>
       </c>
       <c r="G15">
-        <v>1.682374410994586</v>
+        <v>2.066045008198564</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.594251652458878</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>92.59565920766518</v>
+        <v>16.24960746654099</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.58863478776696</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.20404455012175</v>
       </c>
       <c r="N15">
-        <v>8.461368836826775</v>
+        <v>12.75555424789007</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.65738981522113</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.739273136659861</v>
+        <v>14.77554423729624</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.798751662923516</v>
+        <v>5.183896303848717</v>
       </c>
       <c r="E16">
-        <v>7.400572742173154</v>
+        <v>11.64048432926115</v>
       </c>
       <c r="F16">
-        <v>103.2147187236676</v>
+        <v>21.56058960382416</v>
       </c>
       <c r="G16">
-        <v>1.74447674548043</v>
+        <v>2.069277283009017</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.922551601275893</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>86.42553631772414</v>
+        <v>15.82176753958466</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.412997438261768</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.00707448191475</v>
       </c>
       <c r="N16">
-        <v>9.10108040957704</v>
+        <v>12.9049226064686</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>16.48463874176523</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.541326624655815</v>
+        <v>14.54468094069438</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.397438539594109</v>
+        <v>5.127712542798917</v>
       </c>
       <c r="E17">
-        <v>7.278297960257713</v>
+        <v>11.69157533266375</v>
       </c>
       <c r="F17">
-        <v>99.00078666657794</v>
+        <v>21.31402309784023</v>
       </c>
       <c r="G17">
-        <v>1.77583451178257</v>
+        <v>2.071280528350054</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.568488624532591</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>83.15349680461607</v>
+        <v>15.55376903909481</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.330908195833966</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.885812965666</v>
       </c>
       <c r="N17">
-        <v>9.43036698106345</v>
+        <v>12.99713624875725</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>16.38217564799919</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.426858258140097</v>
+        <v>14.41090486309649</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.183860070088764</v>
+        <v>5.095082540900356</v>
       </c>
       <c r="E18">
-        <v>7.213309596298354</v>
+        <v>11.72129157761039</v>
       </c>
       <c r="F18">
-        <v>96.74344823088302</v>
+        <v>21.17294392955253</v>
       </c>
       <c r="G18">
-        <v>1.792394649788482</v>
+        <v>2.072440426968754</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.377215575176221</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>81.37996740371214</v>
+        <v>15.39759673924425</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.283475451888676</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.81593012613518</v>
       </c>
       <c r="N18">
-        <v>9.605915629274365</v>
+        <v>13.05039789529888</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>16.32452390340589</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.387962021976302</v>
+        <v>14.36544385958122</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.113862131669885</v>
+        <v>5.083981092448664</v>
       </c>
       <c r="E19">
-        <v>7.192049483643059</v>
+        <v>11.7314096250561</v>
       </c>
       <c r="F19">
-        <v>96.00163562997419</v>
+        <v>21.1253071556013</v>
       </c>
       <c r="G19">
-        <v>1.797801482999085</v>
+        <v>2.072834487763661</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.332503526837792</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>80.79384335681161</v>
+        <v>15.34437214697952</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.267379527732711</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.79224757561082</v>
       </c>
       <c r="N19">
-        <v>9.663474198112022</v>
+        <v>13.06847050097651</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16.3052233392661</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.562453079662927</v>
+        <v>14.56935991211386</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.438201501624167</v>
+        <v>5.133726085700856</v>
       </c>
       <c r="E20">
-        <v>7.290715313429589</v>
+        <v>11.68610243698017</v>
       </c>
       <c r="F20">
-        <v>99.43051701852899</v>
+        <v>21.3401947617399</v>
       </c>
       <c r="G20">
-        <v>1.772663431295622</v>
+        <v>2.071066488690184</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.604771117808918</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>83.48944666066697</v>
+        <v>15.58250785650353</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.33966951594752</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.89873605330944</v>
       </c>
       <c r="N20">
-        <v>9.396880372551413</v>
+        <v>12.98729709630896</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.39295009058813</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.146216343194716</v>
+        <v>15.24244403617634</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.831168344271891</v>
+        <v>5.297065903406741</v>
       </c>
       <c r="E21">
-        <v>7.711752575079965</v>
+        <v>11.53782416268346</v>
       </c>
       <c r="F21">
-        <v>113.8518063218785</v>
+        <v>22.07079201275078</v>
       </c>
       <c r="G21">
-        <v>1.662583480955563</v>
+        <v>2.065216617256386</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.800535094910305</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>94.48141112181247</v>
+        <v>16.3583526063989</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.636804702082339</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.25475044344115</v>
       </c>
       <c r="N21">
-        <v>8.261034293113722</v>
+        <v>12.71716214192767</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.70308417349572</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.146216343194716</v>
+        <v>15.67289401719437</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.831168344271891</v>
+        <v>5.400905980072717</v>
       </c>
       <c r="E22">
-        <v>7.711752575079965</v>
+        <v>11.4438692229038</v>
       </c>
       <c r="F22">
-        <v>113.8518063218785</v>
+        <v>22.55418964067206</v>
       </c>
       <c r="G22">
-        <v>1.662583480955563</v>
+        <v>2.061457338431857</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.800535094910305</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>94.48141112181247</v>
+        <v>16.84725036538872</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.853293461105284</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.48579383047055</v>
       </c>
       <c r="N22">
-        <v>8.261034293113722</v>
+        <v>12.54239573694434</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.91737778289888</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.146216343194716</v>
+        <v>15.44404677059122</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.831168344271891</v>
+        <v>5.34575596405819</v>
       </c>
       <c r="E23">
-        <v>7.711752575079965</v>
+        <v>11.4937436528374</v>
       </c>
       <c r="F23">
-        <v>113.8518063218785</v>
+        <v>22.29568093901608</v>
       </c>
       <c r="G23">
-        <v>1.662583480955563</v>
+        <v>2.063458109855818</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.800535094910305</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>94.48141112181247</v>
+        <v>16.58798180289419</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.738500595388469</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.36264992241023</v>
       </c>
       <c r="N23">
-        <v>8.261034293113722</v>
+        <v>12.63551888959774</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.80193535149476</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.146216343194716</v>
+        <v>14.55820581116011</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.831168344271891</v>
+        <v>5.131008387086272</v>
       </c>
       <c r="E24">
-        <v>7.711752575079965</v>
+        <v>11.68857566381158</v>
       </c>
       <c r="F24">
-        <v>113.8518063218785</v>
+        <v>21.32836044162663</v>
       </c>
       <c r="G24">
-        <v>1.662583480955563</v>
+        <v>2.071163230411282</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.800535094910305</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>94.48141112181247</v>
+        <v>15.56952156540929</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.335709263090926</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.89289404378851</v>
       </c>
       <c r="N24">
-        <v>8.261034293113722</v>
+        <v>12.99174460623118</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.38807505615286</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.146216343194716</v>
+        <v>13.56540579528863</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.831168344271891</v>
+        <v>4.887427064330918</v>
       </c>
       <c r="E25">
-        <v>7.711752575079965</v>
+        <v>11.91135039928656</v>
       </c>
       <c r="F25">
-        <v>113.8518063218785</v>
+        <v>20.31369612028718</v>
       </c>
       <c r="G25">
-        <v>1.662583480955563</v>
+        <v>2.079770589802327</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.800535094910305</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>94.48141112181247</v>
+        <v>14.39363756716719</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.986166397342513</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.38127896139039</v>
       </c>
       <c r="N25">
-        <v>8.261034293113722</v>
+        <v>13.38461446380705</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.99052918156432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.80679947013164</v>
+        <v>16.19146956285518</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.698502778793453</v>
+        <v>5.200070649924733</v>
       </c>
       <c r="E2">
-        <v>12.08622101970317</v>
+        <v>18.90384565212386</v>
       </c>
       <c r="F2">
-        <v>19.59522447107164</v>
+        <v>25.81361866815054</v>
       </c>
       <c r="G2">
-        <v>2.086386301305466</v>
+        <v>3.640606607126354</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.46250939250525</v>
+        <v>9.763602139254225</v>
       </c>
       <c r="L2">
-        <v>5.723526039530561</v>
+        <v>8.414496959199241</v>
       </c>
       <c r="M2">
-        <v>10.00290064620091</v>
+        <v>15.08002433575798</v>
       </c>
       <c r="N2">
-        <v>13.68235614414783</v>
+        <v>20.88808240955116</v>
       </c>
       <c r="O2">
-        <v>15.73845639846135</v>
+        <v>23.09382578303357</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.27838856989838</v>
+        <v>16.1192693786674</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.564919949182086</v>
+        <v>5.153896498792251</v>
       </c>
       <c r="E3">
-        <v>12.21150588874668</v>
+        <v>18.95494701023011</v>
       </c>
       <c r="F3">
-        <v>19.12826446701755</v>
+        <v>25.80702669859379</v>
       </c>
       <c r="G3">
-        <v>2.091054241550984</v>
+        <v>3.642414409830277</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.79175758392846</v>
+        <v>9.454748024583395</v>
       </c>
       <c r="L3">
-        <v>5.543273931433332</v>
+        <v>8.399384925314486</v>
       </c>
       <c r="M3">
-        <v>9.746890367921084</v>
+        <v>15.0667106688066</v>
       </c>
       <c r="N3">
-        <v>13.88991398318861</v>
+        <v>20.95097965815719</v>
       </c>
       <c r="O3">
-        <v>15.59209054125303</v>
+        <v>23.1370932920056</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.94809246785357</v>
+        <v>16.07791005306803</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.480330621098529</v>
+        <v>5.124844573883039</v>
       </c>
       <c r="E4">
-        <v>12.29177842656985</v>
+        <v>18.98811724536805</v>
       </c>
       <c r="F4">
-        <v>18.8520938006682</v>
+        <v>25.80946186041148</v>
       </c>
       <c r="G4">
-        <v>2.094014715344274</v>
+        <v>3.643584334350189</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.36083525874886</v>
+        <v>9.257953156623193</v>
       </c>
       <c r="L4">
-        <v>5.431881177400206</v>
+        <v>8.391308362560068</v>
       </c>
       <c r="M4">
-        <v>9.59044365401898</v>
+        <v>15.06072546774611</v>
       </c>
       <c r="N4">
-        <v>14.02035524521117</v>
+        <v>20.9914256224606</v>
       </c>
       <c r="O4">
-        <v>15.5139350542854</v>
+        <v>23.16847341401841</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.81222998199684</v>
+        <v>16.06181697555458</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.445241894823201</v>
+        <v>5.112833913498615</v>
       </c>
       <c r="E5">
-        <v>12.3253327181641</v>
+        <v>19.00208657253476</v>
       </c>
       <c r="F5">
-        <v>18.74230645537495</v>
+        <v>25.81208574776883</v>
       </c>
       <c r="G5">
-        <v>2.095245324947382</v>
+        <v>3.644076203566508</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.18053306082421</v>
+        <v>9.176028475885238</v>
       </c>
       <c r="L5">
-        <v>5.386372559527804</v>
+        <v>8.38832191083662</v>
       </c>
       <c r="M5">
-        <v>9.526962943980882</v>
+        <v>15.05883992322635</v>
       </c>
       <c r="N5">
-        <v>14.07428634690885</v>
+        <v>21.00836838530107</v>
       </c>
       <c r="O5">
-        <v>15.48497288156918</v>
+        <v>23.18246977829369</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.78960026797602</v>
+        <v>16.05919109287119</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.439378988858885</v>
+        <v>5.110829309813401</v>
       </c>
       <c r="E6">
-        <v>12.33095530478639</v>
+        <v>19.00443351274773</v>
       </c>
       <c r="F6">
-        <v>18.72424557164164</v>
+        <v>25.81262000345958</v>
       </c>
       <c r="G6">
-        <v>2.095451141307979</v>
+        <v>3.644158792381177</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.15031361428341</v>
+        <v>9.162322707394436</v>
       </c>
       <c r="L6">
-        <v>5.378810920663633</v>
+        <v>8.387844491612114</v>
       </c>
       <c r="M6">
-        <v>9.516441028985811</v>
+        <v>15.05856033852333</v>
       </c>
       <c r="N6">
-        <v>14.08328898150482</v>
+        <v>21.01120958299605</v>
       </c>
       <c r="O6">
-        <v>15.480336241912</v>
+        <v>23.18486681107413</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.94626500692051</v>
+        <v>16.07768991656132</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.479859865158242</v>
+        <v>5.124683283459479</v>
       </c>
       <c r="E7">
-        <v>12.2922275384487</v>
+        <v>18.9883038082053</v>
       </c>
       <c r="F7">
-        <v>18.85060188688157</v>
+        <v>25.80949063997614</v>
       </c>
       <c r="G7">
-        <v>2.094031213212062</v>
+        <v>3.643590906606336</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.35842251444184</v>
+        <v>9.256855194703602</v>
       </c>
       <c r="L7">
-        <v>5.431267809276044</v>
+        <v>8.391266848908968</v>
       </c>
       <c r="M7">
-        <v>9.589586312514193</v>
+        <v>15.06069779397976</v>
       </c>
       <c r="N7">
-        <v>14.02107941302129</v>
+        <v>20.99165225133617</v>
       </c>
       <c r="O7">
-        <v>15.51353285422689</v>
+        <v>23.16865728236547</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.6259343319779</v>
+        <v>16.16596673489348</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.652992682954933</v>
+        <v>5.184297906480111</v>
       </c>
       <c r="E8">
-        <v>12.12872502689507</v>
+        <v>18.9210937748824</v>
       </c>
       <c r="F8">
-        <v>19.43209178870944</v>
+        <v>25.81000145351296</v>
       </c>
       <c r="G8">
-        <v>2.087976516080337</v>
+        <v>3.641217527817932</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.23524695628193</v>
+        <v>9.658634885447441</v>
       </c>
       <c r="L8">
-        <v>5.661561701732174</v>
+        <v>8.409038344388522</v>
       </c>
       <c r="M8">
-        <v>9.914524050796206</v>
+        <v>15.07498119149762</v>
       </c>
       <c r="N8">
-        <v>13.75331232182632</v>
+        <v>20.90939103918387</v>
       </c>
       <c r="O8">
-        <v>15.68552506854651</v>
+        <v>23.10774437212165</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.90445924298679</v>
+        <v>16.36200606840484</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.971016490245388</v>
+        <v>5.295450714934856</v>
       </c>
       <c r="E9">
-        <v>11.83462442205628</v>
+        <v>18.80347691183033</v>
       </c>
       <c r="F9">
-        <v>20.65131533309803</v>
+        <v>25.86233217878239</v>
       </c>
       <c r="G9">
-        <v>2.076829487823034</v>
+        <v>3.637036707511726</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.79998695523431</v>
+        <v>10.38698588073074</v>
       </c>
       <c r="L9">
-        <v>6.104853915092041</v>
+        <v>8.45331094983214</v>
       </c>
       <c r="M9">
-        <v>10.55406054972019</v>
+        <v>15.12022521344731</v>
       </c>
       <c r="N9">
-        <v>13.25102728883551</v>
+        <v>20.76250970290297</v>
       </c>
       <c r="O9">
-        <v>16.11802728932821</v>
+        <v>23.02655678634418</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.80175086273734</v>
+        <v>16.51908405129227</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.190264232004524</v>
+        <v>5.373361001665589</v>
       </c>
       <c r="E10">
-        <v>11.63469925389123</v>
+        <v>18.72563794956697</v>
       </c>
       <c r="F10">
-        <v>21.58882232601836</v>
+        <v>25.93185921044816</v>
       </c>
       <c r="G10">
-        <v>2.069049725283907</v>
+        <v>3.634250671245182</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.85207290125238</v>
+        <v>10.88259205856728</v>
       </c>
       <c r="L10">
-        <v>6.422334005449009</v>
+        <v>8.49141494325659</v>
       </c>
       <c r="M10">
-        <v>11.02089127591772</v>
+        <v>15.16377344061464</v>
       </c>
       <c r="N10">
-        <v>12.89442991197335</v>
+        <v>20.66330602861025</v>
       </c>
       <c r="O10">
-        <v>16.49650492697516</v>
+        <v>22.9903124978443</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.19937082332627</v>
+        <v>16.5931617685295</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.28664980950826</v>
+        <v>5.407938622775498</v>
       </c>
       <c r="E11">
-        <v>11.54726050957396</v>
+        <v>18.69207365664418</v>
       </c>
       <c r="F11">
-        <v>22.02309587077533</v>
+        <v>25.97016870301998</v>
       </c>
       <c r="G11">
-        <v>2.065591881216633</v>
+        <v>3.633044619025731</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.30913622028182</v>
+        <v>11.0989171440531</v>
       </c>
       <c r="L11">
-        <v>6.61500458221311</v>
+        <v>8.50992083902355</v>
       </c>
       <c r="M11">
-        <v>11.23177016923426</v>
+        <v>15.18577493115219</v>
       </c>
       <c r="N11">
-        <v>12.73455937420389</v>
+        <v>20.62004812797257</v>
       </c>
       <c r="O11">
-        <v>16.68231433141963</v>
+        <v>22.97891669185882</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.34832528438795</v>
+        <v>16.62157102375949</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.322650425915752</v>
+        <v>5.420903811181253</v>
       </c>
       <c r="E12">
-        <v>11.51465581440688</v>
+        <v>18.67962791398938</v>
       </c>
       <c r="F12">
-        <v>22.18856647748108</v>
+        <v>25.98562852471273</v>
       </c>
       <c r="G12">
-        <v>2.06429349887728</v>
+        <v>3.632596689834988</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.47910060089085</v>
+        <v>11.17948157950919</v>
       </c>
       <c r="L12">
-        <v>6.690283729363795</v>
+        <v>8.517093434586776</v>
       </c>
       <c r="M12">
-        <v>11.31134949942297</v>
+        <v>15.19441688257587</v>
       </c>
       <c r="N12">
-        <v>12.67432821545902</v>
+        <v>20.60393504627305</v>
       </c>
       <c r="O12">
-        <v>16.75466519424063</v>
+        <v>22.97533388457427</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.31631847988783</v>
+        <v>16.61543699201549</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.314919462335435</v>
+        <v>5.418117313602917</v>
       </c>
       <c r="E13">
-        <v>11.52165525472209</v>
+        <v>18.68229658697339</v>
       </c>
       <c r="F13">
-        <v>22.15288552010836</v>
+        <v>25.98225673558009</v>
       </c>
       <c r="G13">
-        <v>2.064572649029256</v>
+        <v>3.632692769731842</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.4426344860356</v>
+        <v>11.16219136224831</v>
       </c>
       <c r="L13">
-        <v>6.674133779183903</v>
+        <v>8.515541419155296</v>
       </c>
       <c r="M13">
-        <v>11.29422386276528</v>
+        <v>15.19254195218016</v>
       </c>
       <c r="N13">
-        <v>12.68728684373275</v>
+        <v>20.60739339772694</v>
       </c>
       <c r="O13">
-        <v>16.73899428473575</v>
+        <v>22.97607292490708</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.21165826562372</v>
+        <v>16.59549196091463</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.289621680357339</v>
+        <v>5.409007878556652</v>
       </c>
       <c r="E14">
-        <v>11.54456793756782</v>
+        <v>18.69104444602526</v>
       </c>
       <c r="F14">
-        <v>22.03668932172756</v>
+        <v>25.97142154478276</v>
       </c>
       <c r="G14">
-        <v>2.065484845359728</v>
+        <v>3.63300759196802</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.32318180379201</v>
+        <v>11.10557256276057</v>
       </c>
       <c r="L14">
-        <v>6.621226134222978</v>
+        <v>8.510507651734706</v>
       </c>
       <c r="M14">
-        <v>11.23832307284751</v>
+        <v>15.1864797149589</v>
       </c>
       <c r="N14">
-        <v>12.72959811451357</v>
+        <v>20.61871713588191</v>
       </c>
       <c r="O14">
-        <v>16.68822667532211</v>
+        <v>22.97860725036532</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.14733790120817</v>
+        <v>16.58332104114573</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.274060681136718</v>
+        <v>5.403411211299295</v>
       </c>
       <c r="E15">
-        <v>11.55866864439518</v>
+        <v>18.6964371562834</v>
       </c>
       <c r="F15">
-        <v>21.96564590086138</v>
+        <v>25.9649085119721</v>
       </c>
       <c r="G15">
-        <v>2.066045008198564</v>
+        <v>3.633201571395438</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.24960746654099</v>
+        <v>11.07071457214137</v>
       </c>
       <c r="L15">
-        <v>6.58863478776696</v>
+        <v>8.507445673350917</v>
       </c>
       <c r="M15">
-        <v>11.20404455012175</v>
+        <v>15.18280670946652</v>
       </c>
       <c r="N15">
-        <v>12.75555424789007</v>
+        <v>20.62568808531844</v>
       </c>
       <c r="O15">
-        <v>16.65738981522113</v>
+        <v>22.98025499966763</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.77554423729624</v>
+        <v>16.51429401506332</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.183896303848717</v>
+        <v>5.371083510077336</v>
       </c>
       <c r="E16">
-        <v>11.64048432926115</v>
+        <v>18.72786849727683</v>
       </c>
       <c r="F16">
-        <v>21.56058960382416</v>
+        <v>25.92948938966939</v>
       </c>
       <c r="G16">
-        <v>2.069277283009017</v>
+        <v>3.634330720059896</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.82176753958466</v>
+        <v>10.86826743817062</v>
       </c>
       <c r="L16">
-        <v>6.412997438261768</v>
+        <v>8.490228810904595</v>
       </c>
       <c r="M16">
-        <v>11.00707448191475</v>
+        <v>15.16237929439477</v>
       </c>
       <c r="N16">
-        <v>12.9049226064686</v>
+        <v>20.66617056687341</v>
       </c>
       <c r="O16">
-        <v>16.48463874176523</v>
+        <v>22.99115973854891</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.54468094069438</v>
+        <v>16.47260613106224</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.127712542798917</v>
+        <v>5.351027056802197</v>
       </c>
       <c r="E17">
-        <v>11.69157533266375</v>
+        <v>18.74762245966821</v>
       </c>
       <c r="F17">
-        <v>21.31402309784023</v>
+        <v>25.90946688266458</v>
       </c>
       <c r="G17">
-        <v>2.071280528350054</v>
+        <v>3.635039093819835</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.55376903909481</v>
+        <v>10.7417042003425</v>
       </c>
       <c r="L17">
-        <v>6.330908195833966</v>
+        <v>8.479964442997739</v>
       </c>
       <c r="M17">
-        <v>10.885812965666</v>
+        <v>15.15040574561467</v>
       </c>
       <c r="N17">
-        <v>12.99713624875725</v>
+        <v>20.69148343652658</v>
       </c>
       <c r="O17">
-        <v>16.38217564799919</v>
+        <v>22.99915394340257</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.41090486309649</v>
+        <v>16.44887637518998</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.095082540900356</v>
+        <v>5.33941002941462</v>
       </c>
       <c r="E18">
-        <v>11.72129157761039</v>
+        <v>18.75915813878775</v>
       </c>
       <c r="F18">
-        <v>21.17294392955253</v>
+        <v>25.89857988902015</v>
       </c>
       <c r="G18">
-        <v>2.072440426968754</v>
+        <v>3.635452306826607</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.39759673924425</v>
+        <v>10.66805122887423</v>
       </c>
       <c r="L18">
-        <v>6.283475451888676</v>
+        <v>8.474171218612979</v>
       </c>
       <c r="M18">
-        <v>10.81593012613518</v>
+        <v>15.14372541544216</v>
       </c>
       <c r="N18">
-        <v>13.05039789529888</v>
+        <v>20.70621884713101</v>
       </c>
       <c r="O18">
-        <v>16.32452390340589</v>
+        <v>23.00423127455234</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.36544385958122</v>
+        <v>16.44088506632865</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.083981092448664</v>
+        <v>5.335462911056541</v>
       </c>
       <c r="E19">
-        <v>11.7314096250561</v>
+        <v>18.76309378880483</v>
       </c>
       <c r="F19">
-        <v>21.1253071556013</v>
+        <v>25.89500206621425</v>
       </c>
       <c r="G19">
-        <v>2.072834487763661</v>
+        <v>3.635593206841336</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.34437214697952</v>
+        <v>10.64296769897024</v>
       </c>
       <c r="L19">
-        <v>6.267379527732711</v>
+        <v>8.472228833848634</v>
       </c>
       <c r="M19">
-        <v>10.79224757561082</v>
+        <v>15.14149918015596</v>
       </c>
       <c r="N19">
-        <v>13.06847050097651</v>
+        <v>20.71123828930336</v>
       </c>
       <c r="O19">
-        <v>16.3052233392661</v>
+        <v>23.006032672145</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.56935991211386</v>
+        <v>16.47701834803281</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.133726085700856</v>
+        <v>5.353170524376416</v>
       </c>
       <c r="E20">
-        <v>11.68610243698017</v>
+        <v>18.74550164423152</v>
       </c>
       <c r="F20">
-        <v>21.3401947617399</v>
+        <v>25.91153322346473</v>
       </c>
       <c r="G20">
-        <v>2.071066488690184</v>
+        <v>3.634963088825947</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.58250785650353</v>
+        <v>10.75526609341066</v>
       </c>
       <c r="L20">
-        <v>6.33966951594752</v>
+        <v>8.481045685626173</v>
       </c>
       <c r="M20">
-        <v>10.89873605330944</v>
+        <v>15.15165900703346</v>
       </c>
       <c r="N20">
-        <v>12.98729709630896</v>
+        <v>20.68877061961499</v>
       </c>
       <c r="O20">
-        <v>16.39295009058813</v>
+        <v>22.99825333990352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.24244403617634</v>
+        <v>16.60134075169242</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.297065903406741</v>
+        <v>5.411687064822138</v>
       </c>
       <c r="E21">
-        <v>11.53782416268346</v>
+        <v>18.68846782184118</v>
       </c>
       <c r="F21">
-        <v>22.07079201275078</v>
+        <v>25.97457831172311</v>
       </c>
       <c r="G21">
-        <v>2.065216617256386</v>
+        <v>3.632914883187818</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.3583526063989</v>
+        <v>11.12223989974962</v>
       </c>
       <c r="L21">
-        <v>6.636804702082339</v>
+        <v>8.511981748959611</v>
       </c>
       <c r="M21">
-        <v>11.25475044344115</v>
+        <v>15.18825195323688</v>
       </c>
       <c r="N21">
-        <v>12.71716214192767</v>
+        <v>20.61538382249851</v>
       </c>
       <c r="O21">
-        <v>16.70308417349572</v>
+        <v>22.97784297580132</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.67289401719437</v>
+        <v>16.68466778111519</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.400905980072717</v>
+        <v>5.449179457824598</v>
       </c>
       <c r="E22">
-        <v>11.4438692229038</v>
+        <v>18.65273316926706</v>
       </c>
       <c r="F22">
-        <v>22.55418964067206</v>
+        <v>26.02133137026592</v>
       </c>
       <c r="G22">
-        <v>2.061457338431857</v>
+        <v>3.631627399721854</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.84725036538872</v>
+        <v>11.35417574567986</v>
       </c>
       <c r="L22">
-        <v>6.853293461105284</v>
+        <v>8.533159059042095</v>
       </c>
       <c r="M22">
-        <v>11.48579383047055</v>
+        <v>15.21397485271923</v>
       </c>
       <c r="N22">
-        <v>12.54239573694434</v>
+        <v>20.56898138718966</v>
       </c>
       <c r="O22">
-        <v>16.91737778289888</v>
+        <v>22.96877331618133</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.44404677059122</v>
+        <v>16.64001126341718</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.34575596405819</v>
+        <v>5.429239233705319</v>
       </c>
       <c r="E23">
-        <v>11.4937436528374</v>
+        <v>18.67166481666725</v>
       </c>
       <c r="F23">
-        <v>22.29568093901608</v>
+        <v>25.99587351937807</v>
       </c>
       <c r="G23">
-        <v>2.063458109855818</v>
+        <v>3.632309888765178</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.58798180289419</v>
+        <v>11.23112244183626</v>
       </c>
       <c r="L23">
-        <v>6.738500595388469</v>
+        <v>8.521769882231915</v>
       </c>
       <c r="M23">
-        <v>11.36264992241023</v>
+        <v>15.20008228563172</v>
       </c>
       <c r="N23">
-        <v>12.63551888959774</v>
+        <v>20.59360488888441</v>
       </c>
       <c r="O23">
-        <v>16.80193535149476</v>
+        <v>22.97322326848711</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.55820581116011</v>
+        <v>16.47502284453081</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.131008387086272</v>
+        <v>5.352201731175917</v>
       </c>
       <c r="E24">
-        <v>11.68857566381158</v>
+        <v>18.74645990768968</v>
       </c>
       <c r="F24">
-        <v>21.32836044162663</v>
+        <v>25.9105970858199</v>
       </c>
       <c r="G24">
-        <v>2.071163230411282</v>
+        <v>3.634997432116851</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.56952156540929</v>
+        <v>10.74913753087385</v>
       </c>
       <c r="L24">
-        <v>6.335709263090926</v>
+        <v>8.480556519464203</v>
       </c>
       <c r="M24">
-        <v>10.89289404378851</v>
+        <v>15.15109177355949</v>
       </c>
       <c r="N24">
-        <v>12.99174460623118</v>
+        <v>20.68999651492484</v>
       </c>
       <c r="O24">
-        <v>16.38807505615286</v>
+        <v>22.99865900336913</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.56540579528863</v>
+        <v>16.30661032708882</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.887427064330918</v>
+        <v>5.266022531005729</v>
       </c>
       <c r="E25">
-        <v>11.91135039928656</v>
+        <v>18.83378455802354</v>
       </c>
       <c r="F25">
-        <v>20.31369612028718</v>
+        <v>25.84269752608531</v>
       </c>
       <c r="G25">
-        <v>2.079770589802327</v>
+        <v>3.638117360729984</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.39363756716719</v>
+        <v>10.19667785245242</v>
       </c>
       <c r="L25">
-        <v>5.986166397342513</v>
+        <v>8.440341776209713</v>
       </c>
       <c r="M25">
-        <v>10.38127896139039</v>
+        <v>15.10615990908615</v>
       </c>
       <c r="N25">
-        <v>13.38461446380705</v>
+        <v>20.80070906999156</v>
       </c>
       <c r="O25">
-        <v>15.99052918156432</v>
+        <v>23.04441460706522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.19146956285518</v>
+        <v>12.8067994701316</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.200070649924733</v>
+        <v>4.698502778793639</v>
       </c>
       <c r="E2">
-        <v>18.90384565212386</v>
+        <v>12.08622101970324</v>
       </c>
       <c r="F2">
-        <v>25.81361866815054</v>
+        <v>19.59522447107138</v>
       </c>
       <c r="G2">
-        <v>3.640606607126354</v>
+        <v>2.086386301305201</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.763602139254225</v>
+        <v>13.46250939250533</v>
       </c>
       <c r="L2">
-        <v>8.414496959199241</v>
+        <v>5.723526039530526</v>
       </c>
       <c r="M2">
-        <v>15.08002433575798</v>
+        <v>10.00290064620087</v>
       </c>
       <c r="N2">
-        <v>20.88808240955116</v>
+        <v>13.68235614414773</v>
       </c>
       <c r="O2">
-        <v>23.09382578303357</v>
+        <v>15.73845639846113</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.1192693786674</v>
+        <v>12.27838856989837</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.153896498792251</v>
+        <v>4.564919949182146</v>
       </c>
       <c r="E3">
-        <v>18.95494701023011</v>
+        <v>12.21150588874661</v>
       </c>
       <c r="F3">
-        <v>25.80702669859379</v>
+        <v>19.12826446701735</v>
       </c>
       <c r="G3">
-        <v>3.642414409830277</v>
+        <v>2.09105424155085</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.454748024583395</v>
+        <v>12.79175758392855</v>
       </c>
       <c r="L3">
-        <v>8.399384925314486</v>
+        <v>5.543273931433288</v>
       </c>
       <c r="M3">
-        <v>15.0667106688066</v>
+        <v>9.746890367921022</v>
       </c>
       <c r="N3">
-        <v>20.95097965815719</v>
+        <v>13.88991398318855</v>
       </c>
       <c r="O3">
-        <v>23.1370932920056</v>
+        <v>15.59209054125285</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.07791005306803</v>
+        <v>11.94809246785358</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.124844573883039</v>
+        <v>4.480330621098659</v>
       </c>
       <c r="E4">
-        <v>18.98811724536805</v>
+        <v>12.29177842656984</v>
       </c>
       <c r="F4">
-        <v>25.80946186041148</v>
+        <v>18.85209380066816</v>
       </c>
       <c r="G4">
-        <v>3.643584334350189</v>
+        <v>2.094014715344542</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.257953156623193</v>
+        <v>12.36083525874887</v>
       </c>
       <c r="L4">
-        <v>8.391308362560068</v>
+        <v>5.431881177400201</v>
       </c>
       <c r="M4">
-        <v>15.06072546774611</v>
+        <v>9.590443654018976</v>
       </c>
       <c r="N4">
-        <v>20.9914256224606</v>
+        <v>14.02035524521113</v>
       </c>
       <c r="O4">
-        <v>23.16847341401841</v>
+        <v>15.5139350542854</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.06181697555458</v>
+        <v>11.81222998199681</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.112833913498615</v>
+        <v>4.445241894823073</v>
       </c>
       <c r="E5">
-        <v>19.00208657253476</v>
+        <v>12.32533271816418</v>
       </c>
       <c r="F5">
-        <v>25.81208574776883</v>
+        <v>18.74230645537484</v>
       </c>
       <c r="G5">
-        <v>3.644076203566508</v>
+        <v>2.095245324947517</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.176028475885238</v>
+        <v>12.18053306082428</v>
       </c>
       <c r="L5">
-        <v>8.38832191083662</v>
+        <v>5.386372559527833</v>
       </c>
       <c r="M5">
-        <v>15.05883992322635</v>
+        <v>9.526962943980868</v>
       </c>
       <c r="N5">
-        <v>21.00836838530107</v>
+        <v>14.07428634690885</v>
       </c>
       <c r="O5">
-        <v>23.18246977829369</v>
+        <v>15.48497288156911</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.05919109287119</v>
+        <v>11.78960026797604</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.110829309813401</v>
+        <v>4.439378988858881</v>
       </c>
       <c r="E6">
-        <v>19.00443351274773</v>
+        <v>12.33095530478646</v>
       </c>
       <c r="F6">
-        <v>25.81262000345958</v>
+        <v>18.72424557164155</v>
       </c>
       <c r="G6">
-        <v>3.644158792381177</v>
+        <v>2.095451141307845</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.162322707394436</v>
+        <v>12.15031361428343</v>
       </c>
       <c r="L6">
-        <v>8.387844491612114</v>
+        <v>5.378810920663621</v>
       </c>
       <c r="M6">
-        <v>15.05856033852333</v>
+        <v>9.516441028985808</v>
       </c>
       <c r="N6">
-        <v>21.01120958299605</v>
+        <v>14.08328898150479</v>
       </c>
       <c r="O6">
-        <v>23.18486681107413</v>
+        <v>15.48033624191191</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.07768991656132</v>
+        <v>11.94626500692046</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.124683283459479</v>
+        <v>4.47985986515813</v>
       </c>
       <c r="E7">
-        <v>18.9883038082053</v>
+        <v>12.29222753844863</v>
       </c>
       <c r="F7">
-        <v>25.80949063997614</v>
+        <v>18.85060188688142</v>
       </c>
       <c r="G7">
-        <v>3.643590906606336</v>
+        <v>2.09403121321166</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.256855194703602</v>
+        <v>12.3584225144419</v>
       </c>
       <c r="L7">
-        <v>8.391266848908968</v>
+        <v>5.431267809276043</v>
       </c>
       <c r="M7">
-        <v>15.06069779397976</v>
+        <v>9.589586312514106</v>
       </c>
       <c r="N7">
-        <v>20.99165225133617</v>
+        <v>14.02107941302119</v>
       </c>
       <c r="O7">
-        <v>23.16865728236547</v>
+        <v>15.51353285422671</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.16596673489348</v>
+        <v>12.62593433197787</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.184297906480111</v>
+        <v>4.652992682954964</v>
       </c>
       <c r="E8">
-        <v>18.9210937748824</v>
+        <v>12.12872502689507</v>
       </c>
       <c r="F8">
-        <v>25.81000145351296</v>
+        <v>19.4320917887094</v>
       </c>
       <c r="G8">
-        <v>3.641217527817932</v>
+        <v>2.087976516080606</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.658634885447441</v>
+        <v>13.23524695628204</v>
       </c>
       <c r="L8">
-        <v>8.409038344388522</v>
+        <v>5.661561701732149</v>
       </c>
       <c r="M8">
-        <v>15.07498119149762</v>
+        <v>9.914524050796162</v>
       </c>
       <c r="N8">
-        <v>20.90939103918387</v>
+        <v>13.75331232182632</v>
       </c>
       <c r="O8">
-        <v>23.10774437212165</v>
+        <v>15.68552506854641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.36200606840484</v>
+        <v>13.90445924298683</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.295450714934856</v>
+        <v>4.97101649024533</v>
       </c>
       <c r="E9">
-        <v>18.80347691183033</v>
+        <v>11.83462442205655</v>
       </c>
       <c r="F9">
-        <v>25.86233217878239</v>
+        <v>20.65131533309793</v>
       </c>
       <c r="G9">
-        <v>3.637036707511726</v>
+        <v>2.076829487823033</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.38698588073074</v>
+        <v>14.79998695523444</v>
       </c>
       <c r="L9">
-        <v>8.45331094983214</v>
+        <v>6.10485391509205</v>
       </c>
       <c r="M9">
-        <v>15.12022521344731</v>
+        <v>10.5540605497202</v>
       </c>
       <c r="N9">
-        <v>20.76250970290297</v>
+        <v>13.25102728883548</v>
       </c>
       <c r="O9">
-        <v>23.02655678634418</v>
+        <v>16.11802728932809</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.51908405129227</v>
+        <v>14.80175086273731</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.373361001665589</v>
+        <v>5.190264232004522</v>
       </c>
       <c r="E10">
-        <v>18.72563794956697</v>
+        <v>11.63469925389136</v>
       </c>
       <c r="F10">
-        <v>25.93185921044816</v>
+        <v>21.58882232601825</v>
       </c>
       <c r="G10">
-        <v>3.634250671245182</v>
+        <v>2.069049725283907</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.88259205856728</v>
+        <v>15.85207290125241</v>
       </c>
       <c r="L10">
-        <v>8.49141494325659</v>
+        <v>6.422334005449043</v>
       </c>
       <c r="M10">
-        <v>15.16377344061464</v>
+        <v>11.02089127591773</v>
       </c>
       <c r="N10">
-        <v>20.66330602861025</v>
+        <v>12.89442991197328</v>
       </c>
       <c r="O10">
-        <v>22.9903124978443</v>
+        <v>16.49650492697506</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.5931617685295</v>
+        <v>15.19937082332628</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.407938622775498</v>
+        <v>5.286649809508124</v>
       </c>
       <c r="E11">
-        <v>18.69207365664418</v>
+        <v>11.54726050957416</v>
       </c>
       <c r="F11">
-        <v>25.97016870301998</v>
+        <v>22.02309587077538</v>
       </c>
       <c r="G11">
-        <v>3.633044619025731</v>
+        <v>2.065591881216631</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.0989171440531</v>
+        <v>16.30913622028184</v>
       </c>
       <c r="L11">
-        <v>8.50992083902355</v>
+        <v>6.615004582213099</v>
       </c>
       <c r="M11">
-        <v>15.18577493115219</v>
+        <v>11.23177016923429</v>
       </c>
       <c r="N11">
-        <v>20.62004812797257</v>
+        <v>12.73455937420392</v>
       </c>
       <c r="O11">
-        <v>22.97891669185882</v>
+        <v>16.68231433141964</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.62157102375949</v>
+        <v>15.34832528438789</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.420903811181253</v>
+        <v>5.322650425915741</v>
       </c>
       <c r="E12">
-        <v>18.67962791398938</v>
+        <v>11.51465581440694</v>
       </c>
       <c r="F12">
-        <v>25.98562852471273</v>
+        <v>22.18856647748107</v>
       </c>
       <c r="G12">
-        <v>3.632596689834988</v>
+        <v>2.06429349887728</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.17948157950919</v>
+        <v>16.47910060089087</v>
       </c>
       <c r="L12">
-        <v>8.517093434586776</v>
+        <v>6.690283729363811</v>
       </c>
       <c r="M12">
-        <v>15.19441688257587</v>
+        <v>11.31134949942296</v>
       </c>
       <c r="N12">
-        <v>20.60393504627305</v>
+        <v>12.67432821545905</v>
       </c>
       <c r="O12">
-        <v>22.97533388457427</v>
+        <v>16.75466519424063</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.61543699201549</v>
+        <v>15.31631847988781</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.418117313602917</v>
+        <v>5.314919462335374</v>
       </c>
       <c r="E13">
-        <v>18.68229658697339</v>
+        <v>11.52165525472229</v>
       </c>
       <c r="F13">
-        <v>25.98225673558009</v>
+        <v>22.15288552010824</v>
       </c>
       <c r="G13">
-        <v>3.632692769731842</v>
+        <v>2.064572649029122</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.16219136224831</v>
+        <v>16.44263448603576</v>
       </c>
       <c r="L13">
-        <v>8.515541419155296</v>
+        <v>6.674133779183909</v>
       </c>
       <c r="M13">
-        <v>15.19254195218016</v>
+        <v>11.29422386276525</v>
       </c>
       <c r="N13">
-        <v>20.60739339772694</v>
+        <v>12.68728684373275</v>
       </c>
       <c r="O13">
-        <v>22.97607292490708</v>
+        <v>16.73899428473561</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.59549196091463</v>
+        <v>15.21165826562372</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.409007878556652</v>
+        <v>5.28962168035745</v>
       </c>
       <c r="E14">
-        <v>18.69104444602526</v>
+        <v>11.54456793756789</v>
       </c>
       <c r="F14">
-        <v>25.97142154478276</v>
+        <v>22.0366893217275</v>
       </c>
       <c r="G14">
-        <v>3.63300759196802</v>
+        <v>2.065484845359863</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.10557256276057</v>
+        <v>16.32318180379207</v>
       </c>
       <c r="L14">
-        <v>8.510507651734706</v>
+        <v>6.621226134223043</v>
       </c>
       <c r="M14">
-        <v>15.1864797149589</v>
+        <v>11.23832307284748</v>
       </c>
       <c r="N14">
-        <v>20.61871713588191</v>
+        <v>12.72959811451357</v>
       </c>
       <c r="O14">
-        <v>22.97860725036532</v>
+        <v>16.68822667532203</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.58332104114573</v>
+        <v>15.14733790120818</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.403411211299295</v>
+        <v>5.274060681136718</v>
       </c>
       <c r="E15">
-        <v>18.6964371562834</v>
+        <v>11.55866864439525</v>
       </c>
       <c r="F15">
-        <v>25.9649085119721</v>
+        <v>21.96564590086137</v>
       </c>
       <c r="G15">
-        <v>3.633201571395438</v>
+        <v>2.066045008198564</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.07071457214137</v>
+        <v>16.24960746654099</v>
       </c>
       <c r="L15">
-        <v>8.507445673350917</v>
+        <v>6.588634787766947</v>
       </c>
       <c r="M15">
-        <v>15.18280670946652</v>
+        <v>11.20404455012177</v>
       </c>
       <c r="N15">
-        <v>20.62568808531844</v>
+        <v>12.75555424789007</v>
       </c>
       <c r="O15">
-        <v>22.98025499966763</v>
+        <v>16.65738981522112</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.51429401506332</v>
+        <v>14.77554423729623</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.371083510077336</v>
+        <v>5.183896303848822</v>
       </c>
       <c r="E16">
-        <v>18.72786849727683</v>
+        <v>11.64048432926108</v>
       </c>
       <c r="F16">
-        <v>25.92948938966939</v>
+        <v>21.56058960382419</v>
       </c>
       <c r="G16">
-        <v>3.634330720059896</v>
+        <v>2.069277283008883</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.86826743817062</v>
+        <v>15.82176753958463</v>
       </c>
       <c r="L16">
-        <v>8.490228810904595</v>
+        <v>6.412997438261775</v>
       </c>
       <c r="M16">
-        <v>15.16237929439477</v>
+        <v>11.00707448191474</v>
       </c>
       <c r="N16">
-        <v>20.66617056687341</v>
+        <v>12.90492260646867</v>
       </c>
       <c r="O16">
-        <v>22.99115973854891</v>
+        <v>16.48463874176531</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.47260613106224</v>
+        <v>14.54468094069436</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.351027056802197</v>
+        <v>5.127712542798759</v>
       </c>
       <c r="E17">
-        <v>18.74762245966821</v>
+        <v>11.69157533266376</v>
       </c>
       <c r="F17">
-        <v>25.90946688266458</v>
+        <v>21.31402309784027</v>
       </c>
       <c r="G17">
-        <v>3.635039093819835</v>
+        <v>2.071280528350187</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.7417042003425</v>
+        <v>15.55376903909478</v>
       </c>
       <c r="L17">
-        <v>8.479964442997739</v>
+        <v>6.33090819583397</v>
       </c>
       <c r="M17">
-        <v>15.15040574561467</v>
+        <v>10.885812965666</v>
       </c>
       <c r="N17">
-        <v>20.69148343652658</v>
+        <v>12.99713624875722</v>
       </c>
       <c r="O17">
-        <v>22.99915394340257</v>
+        <v>16.38217564799915</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44887637518998</v>
+        <v>14.41090486309653</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.33941002941462</v>
+        <v>5.095082540900356</v>
       </c>
       <c r="E18">
-        <v>18.75915813878775</v>
+        <v>11.72129157761046</v>
       </c>
       <c r="F18">
-        <v>25.89857988902015</v>
+        <v>21.1729439295525</v>
       </c>
       <c r="G18">
-        <v>3.635452306826607</v>
+        <v>2.072440426968486</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.66805122887423</v>
+        <v>15.39759673924426</v>
       </c>
       <c r="L18">
-        <v>8.474171218612979</v>
+        <v>6.283475451888683</v>
       </c>
       <c r="M18">
-        <v>15.14372541544216</v>
+        <v>10.81593012613518</v>
       </c>
       <c r="N18">
-        <v>20.70621884713101</v>
+        <v>13.05039789529891</v>
       </c>
       <c r="O18">
-        <v>23.00423127455234</v>
+        <v>16.32452390340586</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.44088506632865</v>
+        <v>14.36544385958121</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.335462911056541</v>
+        <v>5.083981092448743</v>
       </c>
       <c r="E19">
-        <v>18.76309378880483</v>
+        <v>11.73140962505603</v>
       </c>
       <c r="F19">
-        <v>25.89500206621425</v>
+        <v>21.12530715560118</v>
       </c>
       <c r="G19">
-        <v>3.635593206841336</v>
+        <v>2.072834487763795</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.64296769897024</v>
+        <v>15.34437214697955</v>
       </c>
       <c r="L19">
-        <v>8.472228833848634</v>
+        <v>6.267379527732693</v>
       </c>
       <c r="M19">
-        <v>15.14149918015596</v>
+        <v>10.79224757561079</v>
       </c>
       <c r="N19">
-        <v>20.71123828930336</v>
+        <v>13.06847050097642</v>
       </c>
       <c r="O19">
-        <v>23.006032672145</v>
+        <v>16.305223339266</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.47701834803281</v>
+        <v>14.56935991211386</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.353170524376416</v>
+        <v>5.133726085700975</v>
       </c>
       <c r="E20">
-        <v>18.74550164423152</v>
+        <v>11.6861024369803</v>
       </c>
       <c r="F20">
-        <v>25.91153322346473</v>
+        <v>21.34019476173971</v>
       </c>
       <c r="G20">
-        <v>3.634963088825947</v>
+        <v>2.07106648869005</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.75526609341066</v>
+        <v>15.58250785650358</v>
       </c>
       <c r="L20">
-        <v>8.481045685626173</v>
+        <v>6.339669515947499</v>
       </c>
       <c r="M20">
-        <v>15.15165900703346</v>
+        <v>10.89873605330945</v>
       </c>
       <c r="N20">
-        <v>20.68877061961499</v>
+        <v>12.98729709630889</v>
       </c>
       <c r="O20">
-        <v>22.99825333990352</v>
+        <v>16.39295009058799</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.60134075169242</v>
+        <v>15.24244403617636</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.411687064822138</v>
+        <v>5.297065903406742</v>
       </c>
       <c r="E21">
-        <v>18.68846782184118</v>
+        <v>11.5378241626836</v>
       </c>
       <c r="F21">
-        <v>25.97457831172311</v>
+        <v>22.07079201275068</v>
       </c>
       <c r="G21">
-        <v>3.632914883187818</v>
+        <v>2.065216617256653</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.12223989974962</v>
+        <v>16.358352606399</v>
       </c>
       <c r="L21">
-        <v>8.511981748959611</v>
+        <v>6.63680470208245</v>
       </c>
       <c r="M21">
-        <v>15.18825195323688</v>
+        <v>11.25475044344113</v>
       </c>
       <c r="N21">
-        <v>20.61538382249851</v>
+        <v>12.7171621419276</v>
       </c>
       <c r="O21">
-        <v>22.97784297580132</v>
+        <v>16.7030841734956</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.68466778111519</v>
+        <v>15.67289401719437</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.449179457824598</v>
+        <v>5.400905980072832</v>
       </c>
       <c r="E22">
-        <v>18.65273316926706</v>
+        <v>11.44386922290367</v>
       </c>
       <c r="F22">
-        <v>26.02133137026592</v>
+        <v>22.55418964067198</v>
       </c>
       <c r="G22">
-        <v>3.631627399721854</v>
+        <v>2.061457338431723</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.35417574567986</v>
+        <v>16.84725036538868</v>
       </c>
       <c r="L22">
-        <v>8.533159059042095</v>
+        <v>6.853293461105263</v>
       </c>
       <c r="M22">
-        <v>15.21397485271923</v>
+        <v>11.48579383047055</v>
       </c>
       <c r="N22">
-        <v>20.56898138718966</v>
+        <v>12.54239573694424</v>
       </c>
       <c r="O22">
-        <v>22.96877331618133</v>
+        <v>16.91737778289882</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.64001126341718</v>
+        <v>15.44404677059121</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.429239233705319</v>
+        <v>5.345755964058189</v>
       </c>
       <c r="E23">
-        <v>18.67166481666725</v>
+        <v>11.49374365283746</v>
       </c>
       <c r="F23">
-        <v>25.99587351937807</v>
+        <v>22.29568093901602</v>
       </c>
       <c r="G23">
-        <v>3.632309888765178</v>
+        <v>2.063458109855683</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.23112244183626</v>
+        <v>16.58798180289422</v>
       </c>
       <c r="L23">
-        <v>8.521769882231915</v>
+        <v>6.738500595388511</v>
       </c>
       <c r="M23">
-        <v>15.20008228563172</v>
+        <v>11.36264992241021</v>
       </c>
       <c r="N23">
-        <v>20.59360488888441</v>
+        <v>12.63551888959771</v>
       </c>
       <c r="O23">
-        <v>22.97322326848711</v>
+        <v>16.8019353514947</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.47502284453081</v>
+        <v>14.55820581116013</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.352201731175917</v>
+        <v>5.131008387086234</v>
       </c>
       <c r="E24">
-        <v>18.74645990768968</v>
+        <v>11.68857566381178</v>
       </c>
       <c r="F24">
-        <v>25.9105970858199</v>
+        <v>21.3283604416265</v>
       </c>
       <c r="G24">
-        <v>3.634997432116851</v>
+        <v>2.071163230411416</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.74913753087385</v>
+        <v>15.56952156540941</v>
       </c>
       <c r="L24">
-        <v>8.480556519464203</v>
+        <v>6.335709263090927</v>
       </c>
       <c r="M24">
-        <v>15.15109177355949</v>
+        <v>10.89289404378854</v>
       </c>
       <c r="N24">
-        <v>20.68999651492484</v>
+        <v>12.99174460623107</v>
       </c>
       <c r="O24">
-        <v>22.99865900336913</v>
+        <v>16.38807505615272</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.30661032708882</v>
+        <v>13.56540579528865</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.266022531005729</v>
+        <v>4.887427064330923</v>
       </c>
       <c r="E25">
-        <v>18.83378455802354</v>
+        <v>11.91135039928676</v>
       </c>
       <c r="F25">
-        <v>25.84269752608531</v>
+        <v>20.31369612028714</v>
       </c>
       <c r="G25">
-        <v>3.638117360729984</v>
+        <v>2.07977058980246</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.19667785245242</v>
+        <v>14.39363756716721</v>
       </c>
       <c r="L25">
-        <v>8.440341776209713</v>
+        <v>5.986166397342513</v>
       </c>
       <c r="M25">
-        <v>15.10615990908615</v>
+        <v>10.38127896139041</v>
       </c>
       <c r="N25">
-        <v>20.80070906999156</v>
+        <v>13.38461446380705</v>
       </c>
       <c r="O25">
-        <v>23.04441460706522</v>
+        <v>15.99052918156426</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.8067994701316</v>
+        <v>6.27301135080837</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.698502778793639</v>
+        <v>6.555854803165158</v>
       </c>
       <c r="E2">
-        <v>12.08622101970324</v>
+        <v>11.48799051869339</v>
       </c>
       <c r="F2">
-        <v>19.59522447107138</v>
+        <v>30.08841017207887</v>
       </c>
       <c r="G2">
-        <v>2.086386301305201</v>
+        <v>37.42530163561295</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.627540418727928</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.323049269824704</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.91725832056935</v>
       </c>
       <c r="K2">
-        <v>13.46250939250533</v>
+        <v>14.3951376490869</v>
       </c>
       <c r="L2">
-        <v>5.723526039530526</v>
+        <v>7.395720640882396</v>
       </c>
       <c r="M2">
-        <v>10.00290064620087</v>
+        <v>18.39590292605538</v>
       </c>
       <c r="N2">
-        <v>13.68235614414773</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.73845639846113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.85429475885929</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.27838856989837</v>
+        <v>5.914552153367246</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.564919949182146</v>
+        <v>6.238720790556435</v>
       </c>
       <c r="E3">
-        <v>12.21150588874661</v>
+        <v>10.91544127973492</v>
       </c>
       <c r="F3">
-        <v>19.12826446701735</v>
+        <v>29.07824010280049</v>
       </c>
       <c r="G3">
-        <v>2.09105424155085</v>
+        <v>35.99274089236751</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.786500834790527</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.425110645587072</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.7406317059071</v>
       </c>
       <c r="K3">
-        <v>12.79175758392855</v>
+        <v>14.55626727842313</v>
       </c>
       <c r="L3">
-        <v>5.543273931433288</v>
+        <v>7.14457229327401</v>
       </c>
       <c r="M3">
-        <v>9.746890367921022</v>
+        <v>17.17324555163661</v>
       </c>
       <c r="N3">
-        <v>13.88991398318855</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.59209054125285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.01302766225994</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.94809246785358</v>
+        <v>5.678056432818062</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.480330621098659</v>
+        <v>6.036590253422228</v>
       </c>
       <c r="E4">
-        <v>12.29177842656984</v>
+        <v>10.54897850709385</v>
       </c>
       <c r="F4">
-        <v>18.85209380066816</v>
+        <v>28.45171646863107</v>
       </c>
       <c r="G4">
-        <v>2.094014715344542</v>
+        <v>35.10290326602241</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.973407215583569</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.490732879814518</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.63553912559408</v>
       </c>
       <c r="K4">
-        <v>12.36083525874887</v>
+        <v>14.65658854157901</v>
       </c>
       <c r="L4">
-        <v>5.431881177400201</v>
+        <v>6.985306390555325</v>
       </c>
       <c r="M4">
-        <v>9.590443654018976</v>
+        <v>16.38106365556715</v>
       </c>
       <c r="N4">
-        <v>14.02035524521113</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.5139350542854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.11184091039275</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.81222998199681</v>
+        <v>5.565162528346343</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.445241894823073</v>
+        <v>5.953911053455525</v>
       </c>
       <c r="E5">
-        <v>12.32533271816418</v>
+        <v>10.39659220536483</v>
       </c>
       <c r="F5">
-        <v>18.74230645537484</v>
+        <v>28.18850306983904</v>
       </c>
       <c r="G5">
-        <v>2.095245324947517</v>
+        <v>34.7261876540292</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.051206898239115</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.521056082924452</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.59122896575122</v>
       </c>
       <c r="K5">
-        <v>12.18053306082428</v>
+        <v>14.69303814899213</v>
       </c>
       <c r="L5">
-        <v>5.386372559527833</v>
+        <v>6.918983313771082</v>
       </c>
       <c r="M5">
-        <v>9.526962943980868</v>
+        <v>16.05259484176115</v>
       </c>
       <c r="N5">
-        <v>14.07428634690885</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.48497288156911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.15170989193999</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.78960026797604</v>
+        <v>5.530959386803326</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.439378988858881</v>
+        <v>5.941903804466724</v>
       </c>
       <c r="E6">
-        <v>12.33095530478646</v>
+        <v>10.37183466649249</v>
       </c>
       <c r="F6">
-        <v>18.72424557164155</v>
+        <v>28.13663986877846</v>
       </c>
       <c r="G6">
-        <v>2.095451141307845</v>
+        <v>34.6488898746597</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.064320128738398</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.52975352376377</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.58106936997903</v>
       </c>
       <c r="K6">
-        <v>12.15031361428343</v>
+        <v>14.69328082480526</v>
       </c>
       <c r="L6">
-        <v>5.378810920663621</v>
+        <v>6.907672623977219</v>
       </c>
       <c r="M6">
-        <v>9.516441028985808</v>
+        <v>16.00331774082515</v>
       </c>
       <c r="N6">
-        <v>14.08328898150479</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.48033624191191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.15743922580396</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.94626500692046</v>
+        <v>5.635856168277265</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.47985986515813</v>
+        <v>6.040386712924888</v>
       </c>
       <c r="E7">
-        <v>12.29222753844863</v>
+        <v>10.54899287572019</v>
       </c>
       <c r="F7">
-        <v>18.85060188688142</v>
+        <v>28.42636731757524</v>
       </c>
       <c r="G7">
-        <v>2.09403121321166</v>
+        <v>35.0584555936727</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.974717483272719</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.500686201228415</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.62719976696878</v>
       </c>
       <c r="K7">
-        <v>12.3584225144419</v>
+        <v>14.64117009766031</v>
       </c>
       <c r="L7">
-        <v>5.431267809276043</v>
+        <v>6.983814483883929</v>
       </c>
       <c r="M7">
-        <v>9.589586312514106</v>
+        <v>16.392385070475</v>
       </c>
       <c r="N7">
-        <v>14.02107941302119</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.51353285422671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.10995936246612</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.62593433197787</v>
+        <v>6.102684607818828</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.652992682954964</v>
+        <v>6.454177551753372</v>
       </c>
       <c r="E8">
-        <v>12.12872502689507</v>
+        <v>11.29627421108757</v>
       </c>
       <c r="F8">
-        <v>19.4320917887094</v>
+        <v>29.71402970894404</v>
       </c>
       <c r="G8">
-        <v>2.087976516080606</v>
+        <v>36.88426984821916</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.592593706210136</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.369644414228896</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.84568168640338</v>
       </c>
       <c r="K8">
-        <v>13.23524695628204</v>
+        <v>14.4295627499204</v>
       </c>
       <c r="L8">
-        <v>5.661561701732149</v>
+        <v>7.309440329938176</v>
       </c>
       <c r="M8">
-        <v>9.914524050796162</v>
+        <v>18.00202420875198</v>
       </c>
       <c r="N8">
-        <v>13.75331232182632</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.68552506854641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.90590189324621</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.90445924298683</v>
+        <v>6.952291823815934</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.97101649024533</v>
+        <v>7.196760512048321</v>
       </c>
       <c r="E9">
-        <v>11.83462442205655</v>
+        <v>12.6375262572894</v>
       </c>
       <c r="F9">
-        <v>20.65131533309793</v>
+        <v>32.21466781986073</v>
       </c>
       <c r="G9">
-        <v>2.076829487823033</v>
+        <v>40.43253154004981</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.21576054569264</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.120254982532776</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.31395801383702</v>
       </c>
       <c r="K9">
-        <v>14.79998695523444</v>
+        <v>14.05309117094525</v>
       </c>
       <c r="L9">
-        <v>6.10485391509205</v>
+        <v>7.907583433864584</v>
       </c>
       <c r="M9">
-        <v>10.5540605497202</v>
+        <v>20.80701986445141</v>
       </c>
       <c r="N9">
-        <v>13.25102728883548</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.11802728932809</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.51938405170916</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.80175086273731</v>
+        <v>7.493849831212941</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.190264232004522</v>
+        <v>7.625711777076629</v>
       </c>
       <c r="E10">
-        <v>11.63469925389136</v>
+        <v>13.32655928063226</v>
       </c>
       <c r="F10">
-        <v>21.58882232601825</v>
+        <v>33.75366799797732</v>
       </c>
       <c r="G10">
-        <v>2.069049725283907</v>
+        <v>42.64610675945503</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.675876448223739</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.958958312686621</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.60958170293953</v>
       </c>
       <c r="K10">
-        <v>15.85207290125241</v>
+        <v>13.75308475276823</v>
       </c>
       <c r="L10">
-        <v>6.422334005449043</v>
+        <v>8.20708847073133</v>
       </c>
       <c r="M10">
-        <v>11.02089127591773</v>
+        <v>22.60060667534911</v>
       </c>
       <c r="N10">
-        <v>12.89442991197328</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.49650492697506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.2400673216646</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.19937082332628</v>
+        <v>7.804640638194979</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.286649809508124</v>
+        <v>7.141232655532395</v>
       </c>
       <c r="E11">
-        <v>11.54726050957416</v>
+        <v>11.769501266976</v>
       </c>
       <c r="F11">
-        <v>22.02309587077538</v>
+        <v>32.35260953326702</v>
       </c>
       <c r="G11">
-        <v>2.065591881216631</v>
+        <v>41.00645869298347</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.389461198882987</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.929860779154359</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.20871774431508</v>
       </c>
       <c r="K11">
-        <v>16.30913622028184</v>
+        <v>13.42027333008816</v>
       </c>
       <c r="L11">
-        <v>6.615004582213099</v>
+        <v>7.4134975558636</v>
       </c>
       <c r="M11">
-        <v>11.23177016923429</v>
+        <v>22.72932461382219</v>
       </c>
       <c r="N11">
-        <v>12.73455937420392</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.68231433141964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.13097000049719</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.34832528438789</v>
+        <v>8.010763441280336</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.322650425915741</v>
+        <v>6.639676286869485</v>
       </c>
       <c r="E12">
-        <v>11.51465581440694</v>
+        <v>10.36975094116802</v>
       </c>
       <c r="F12">
-        <v>22.18856647748107</v>
+        <v>30.84915392522068</v>
       </c>
       <c r="G12">
-        <v>2.06429349887728</v>
+        <v>39.17317181777987</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.497704774831867</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.920916042031436</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.81052089540046</v>
       </c>
       <c r="K12">
-        <v>16.47910060089087</v>
+        <v>13.23656036181532</v>
       </c>
       <c r="L12">
-        <v>6.690283729363811</v>
+        <v>6.760740842723393</v>
       </c>
       <c r="M12">
-        <v>11.31134949942296</v>
+        <v>22.4512832157225</v>
       </c>
       <c r="N12">
-        <v>12.67432821545905</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.75466519424063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.1146739236188</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.31631847988781</v>
+        <v>8.106726091092979</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.314919462335374</v>
+        <v>6.0904747191983</v>
       </c>
       <c r="E13">
-        <v>11.52165525472229</v>
+        <v>9.010404546192314</v>
       </c>
       <c r="F13">
-        <v>22.15288552010824</v>
+        <v>29.11686104299801</v>
       </c>
       <c r="G13">
-        <v>2.064572649029122</v>
+        <v>36.98224570857167</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.719414534282592</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.941748472795064</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.37541250175265</v>
       </c>
       <c r="K13">
-        <v>16.44263448603576</v>
+        <v>13.13268898152322</v>
       </c>
       <c r="L13">
-        <v>6.674133779183909</v>
+        <v>6.192425007323195</v>
       </c>
       <c r="M13">
-        <v>11.29422386276525</v>
+        <v>21.8533134950253</v>
       </c>
       <c r="N13">
-        <v>12.68728684373275</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.73899428473561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.16279330346578</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.21165826562372</v>
+        <v>8.116326595821072</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.28962168035745</v>
+        <v>5.683303424106493</v>
       </c>
       <c r="E14">
-        <v>11.54456793756789</v>
+        <v>8.111273879107589</v>
       </c>
       <c r="F14">
-        <v>22.0366893217275</v>
+        <v>27.78355923180451</v>
       </c>
       <c r="G14">
-        <v>2.065484845359863</v>
+        <v>35.2564092112278</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.616411795183599</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.972692456569397</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.05198579394091</v>
       </c>
       <c r="K14">
-        <v>16.32318180379207</v>
+        <v>13.09488490942446</v>
       </c>
       <c r="L14">
-        <v>6.621226134223043</v>
+        <v>5.862929607293522</v>
       </c>
       <c r="M14">
-        <v>11.23832307284748</v>
+        <v>21.28560267262047</v>
       </c>
       <c r="N14">
-        <v>12.72959811451357</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.68822667532203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.22593652766013</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.14733790120818</v>
+        <v>8.081952590099974</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.274060681136718</v>
+        <v>5.57403742680424</v>
       </c>
       <c r="E15">
-        <v>11.55866864439525</v>
+        <v>7.89434670986927</v>
       </c>
       <c r="F15">
-        <v>21.96564590086137</v>
+        <v>27.40447905861651</v>
       </c>
       <c r="G15">
-        <v>2.066045008198564</v>
+        <v>34.7475354121767</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.819693303668068</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.991123588149408</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.9640560131219</v>
       </c>
       <c r="K15">
-        <v>16.24960746654099</v>
+        <v>13.09785384372573</v>
       </c>
       <c r="L15">
-        <v>6.588634787766947</v>
+        <v>5.790269347879843</v>
       </c>
       <c r="M15">
-        <v>11.20404455012177</v>
+        <v>21.08118763467097</v>
       </c>
       <c r="N15">
-        <v>12.75555424789007</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.65738981522112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.25321421207707</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.77554423729623</v>
+        <v>7.829054183068374</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.183896303848822</v>
+        <v>5.476379531710251</v>
       </c>
       <c r="E16">
-        <v>11.64048432926108</v>
+        <v>7.802409788441239</v>
       </c>
       <c r="F16">
-        <v>21.56058960382419</v>
+        <v>27.01632304267474</v>
       </c>
       <c r="G16">
-        <v>2.069277283008883</v>
+        <v>34.11184372737729</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.532395496941451</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.060806883814244</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.91316674395613</v>
       </c>
       <c r="K16">
-        <v>15.82176753958463</v>
+        <v>13.23862538242815</v>
       </c>
       <c r="L16">
-        <v>6.412997438261775</v>
+        <v>5.757977122439694</v>
       </c>
       <c r="M16">
-        <v>11.00707448191474</v>
+        <v>20.42839977358823</v>
       </c>
       <c r="N16">
-        <v>12.90492260646867</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.48463874176531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.35296947670746</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.54468094069436</v>
+        <v>7.623107297639102</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.127712542798759</v>
+        <v>5.623761822428854</v>
       </c>
       <c r="E17">
-        <v>11.69157533266376</v>
+        <v>8.202472152389866</v>
       </c>
       <c r="F17">
-        <v>21.31402309784027</v>
+        <v>27.44691050378489</v>
       </c>
       <c r="G17">
-        <v>2.071280528350187</v>
+        <v>34.57410033074959</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.7818981916499</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.09871985505929</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.04827403771277</v>
       </c>
       <c r="K17">
-        <v>15.55376903909478</v>
+        <v>13.3651118461504</v>
       </c>
       <c r="L17">
-        <v>6.33090819583397</v>
+        <v>5.894861953329763</v>
       </c>
       <c r="M17">
-        <v>10.885812965666</v>
+        <v>20.23550837166012</v>
       </c>
       <c r="N17">
-        <v>12.99713624875722</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.38217564799915</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.3969757314053</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.41090486309653</v>
+        <v>7.46782844566624</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.095082540900356</v>
+        <v>6.00443619976947</v>
       </c>
       <c r="E18">
-        <v>11.72129157761046</v>
+        <v>9.169833402721046</v>
       </c>
       <c r="F18">
-        <v>21.1729439295525</v>
+        <v>28.64196917886845</v>
       </c>
       <c r="G18">
-        <v>2.072440426968486</v>
+        <v>36.05311233077633</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.590379201114703</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.102628945047065</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.36204887549756</v>
       </c>
       <c r="K18">
-        <v>15.39759673924426</v>
+        <v>13.50844889811732</v>
       </c>
       <c r="L18">
-        <v>6.283475451888683</v>
+        <v>6.271145090932081</v>
       </c>
       <c r="M18">
-        <v>10.81593012613518</v>
+        <v>20.41714862575888</v>
       </c>
       <c r="N18">
-        <v>13.05039789529891</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.32452390340586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.40394446902986</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.36544385958121</v>
+        <v>7.307278003277541</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.083981092448743</v>
+        <v>6.55672379333985</v>
       </c>
       <c r="E19">
-        <v>11.73140962505603</v>
+        <v>10.61336145506588</v>
       </c>
       <c r="F19">
-        <v>21.12530715560118</v>
+        <v>30.31655681306727</v>
       </c>
       <c r="G19">
-        <v>2.072834487763795</v>
+        <v>38.15375621686583</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.305528286616716</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.09763852640531</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.78267384015857</v>
       </c>
       <c r="K19">
-        <v>15.34437214697955</v>
+        <v>13.64343576985721</v>
       </c>
       <c r="L19">
-        <v>6.267379527732693</v>
+        <v>6.902523042166552</v>
       </c>
       <c r="M19">
-        <v>10.79224757561079</v>
+        <v>20.90824095659387</v>
       </c>
       <c r="N19">
-        <v>13.06847050097642</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>16.305223339266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.39011705200427</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.56935991211386</v>
+        <v>7.25791191209255</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.133726085700975</v>
+        <v>7.523988560155995</v>
       </c>
       <c r="E20">
-        <v>11.6861024369803</v>
+        <v>13.14432649337497</v>
       </c>
       <c r="F20">
-        <v>21.34019476173971</v>
+        <v>33.28425777696516</v>
       </c>
       <c r="G20">
-        <v>2.07106648869005</v>
+        <v>41.95410889107609</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.55400060414705</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.031433529617038</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.50628315382117</v>
       </c>
       <c r="K20">
-        <v>15.58250785650358</v>
+        <v>13.78319701116669</v>
       </c>
       <c r="L20">
-        <v>6.339669515947499</v>
+        <v>8.123057243873006</v>
       </c>
       <c r="M20">
-        <v>10.89873605330945</v>
+        <v>22.17569739887464</v>
       </c>
       <c r="N20">
-        <v>12.98729709630889</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.39295009058799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.30834929732364</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.24244403617636</v>
+        <v>7.650910514312537</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.297065903406742</v>
+        <v>7.960974576078734</v>
       </c>
       <c r="E21">
-        <v>11.5378241626836</v>
+        <v>13.99226079938887</v>
       </c>
       <c r="F21">
-        <v>22.07079201275068</v>
+        <v>34.83228258252635</v>
       </c>
       <c r="G21">
-        <v>2.065216617256653</v>
+        <v>44.11595145636593</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.930263389685773</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.901277162002162</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.83763111209703</v>
       </c>
       <c r="K21">
-        <v>16.358352606399</v>
+        <v>13.5974215574259</v>
       </c>
       <c r="L21">
-        <v>6.63680470208245</v>
+        <v>8.520548242830239</v>
       </c>
       <c r="M21">
-        <v>11.25475044344113</v>
+        <v>23.6025425405208</v>
       </c>
       <c r="N21">
-        <v>12.7171621419276</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.7030841734956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.09590971657683</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.67289401719437</v>
+        <v>7.938360858806652</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.400905980072832</v>
+        <v>8.193370454138318</v>
       </c>
       <c r="E22">
-        <v>11.44386922290367</v>
+        <v>14.41607944118516</v>
       </c>
       <c r="F22">
-        <v>22.55418964067198</v>
+        <v>35.73147318261504</v>
       </c>
       <c r="G22">
-        <v>2.061457338431723</v>
+        <v>45.39589425564448</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.162164107625449</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.807291692258498</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.03456955282367</v>
       </c>
       <c r="K22">
-        <v>16.84725036538868</v>
+        <v>13.48590844013466</v>
       </c>
       <c r="L22">
-        <v>6.853293461105263</v>
+        <v>8.717654281954101</v>
       </c>
       <c r="M22">
-        <v>11.48579383047055</v>
+        <v>24.44655392499372</v>
       </c>
       <c r="N22">
-        <v>12.54239573694424</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.91737778289882</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.95957677851859</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.44404677059121</v>
+        <v>7.821913350814736</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.345755964058189</v>
+        <v>8.065577731392382</v>
       </c>
       <c r="E23">
-        <v>11.49374365283746</v>
+        <v>14.1892762550109</v>
       </c>
       <c r="F23">
-        <v>22.29568093901602</v>
+        <v>35.27329782025784</v>
       </c>
       <c r="G23">
-        <v>2.063458109855683</v>
+        <v>44.75071983397513</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.038955418349926</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.845163031507237</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.93720718409234</v>
       </c>
       <c r="K23">
-        <v>16.58798180289422</v>
+        <v>13.56338743682237</v>
       </c>
       <c r="L23">
-        <v>6.738500595388511</v>
+        <v>8.613475874201921</v>
       </c>
       <c r="M23">
-        <v>11.36264992241021</v>
+        <v>23.98602341845845</v>
       </c>
       <c r="N23">
-        <v>12.63551888959771</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.8019353514947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.03393204481884</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.55820581116013</v>
+        <v>7.297170030340366</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.131008387086234</v>
+        <v>7.573402374988556</v>
       </c>
       <c r="E24">
-        <v>11.68857566381178</v>
+        <v>13.30506202178664</v>
       </c>
       <c r="F24">
-        <v>21.3283604416265</v>
+        <v>33.48315438551936</v>
       </c>
       <c r="G24">
-        <v>2.071163230411416</v>
+        <v>42.21710405006628</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.564304069068875</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.012384483138404</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.56200451027864</v>
       </c>
       <c r="K24">
-        <v>15.56952156540941</v>
+        <v>13.83034704198963</v>
       </c>
       <c r="L24">
-        <v>6.335709263090927</v>
+        <v>8.207955191630868</v>
       </c>
       <c r="M24">
-        <v>10.89289404378854</v>
+        <v>22.19284381879047</v>
       </c>
       <c r="N24">
-        <v>12.99174460623107</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.38807505615272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.31412859648959</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.56540579528865</v>
+        <v>6.67433853386257</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.887427064330923</v>
+        <v>7.010301092447846</v>
       </c>
       <c r="E25">
-        <v>11.91135039928676</v>
+        <v>12.29112609831504</v>
       </c>
       <c r="F25">
-        <v>20.31369612028714</v>
+        <v>31.51096806562773</v>
       </c>
       <c r="G25">
-        <v>2.07977058980246</v>
+        <v>39.42247952111486</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.034276883437482</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.202263306544811</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.17134233018771</v>
       </c>
       <c r="K25">
-        <v>14.39363756716721</v>
+        <v>14.12591520741273</v>
       </c>
       <c r="L25">
-        <v>5.986166397342513</v>
+        <v>7.749400952381384</v>
       </c>
       <c r="M25">
-        <v>10.38127896139041</v>
+        <v>20.10624480768689</v>
       </c>
       <c r="N25">
-        <v>13.38461446380705</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.99052918156426</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.61971599448305</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.27301135080837</v>
+        <v>6.150189900755285</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.555854803165158</v>
+        <v>6.580758980036258</v>
       </c>
       <c r="E2">
-        <v>11.48799051869339</v>
+        <v>11.49580413783257</v>
       </c>
       <c r="F2">
-        <v>30.08841017207887</v>
+        <v>29.96800239010566</v>
       </c>
       <c r="G2">
-        <v>37.42530163561295</v>
+        <v>36.77325651028588</v>
       </c>
       <c r="H2">
-        <v>1.627540418727928</v>
+        <v>1.621986409496323</v>
       </c>
       <c r="I2">
-        <v>3.323049269824704</v>
+        <v>3.081040416065536</v>
       </c>
       <c r="J2">
-        <v>11.91725832056935</v>
+        <v>12.23569519773764</v>
       </c>
       <c r="K2">
-        <v>14.3951376490869</v>
+        <v>13.72559140563775</v>
       </c>
       <c r="L2">
-        <v>7.395720640882396</v>
+        <v>11.27647971803461</v>
       </c>
       <c r="M2">
-        <v>18.39590292605538</v>
+        <v>8.962206712635084</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.390435074878699</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.42534607479841</v>
       </c>
       <c r="P2">
-        <v>12.85429475885929</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.69511077403879</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.914552153367246</v>
+        <v>5.882512708887531</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.238720790556435</v>
+        <v>6.260718363283646</v>
       </c>
       <c r="E3">
-        <v>10.91544127973492</v>
+        <v>10.9271166413755</v>
       </c>
       <c r="F3">
-        <v>29.07824010280049</v>
+        <v>28.98634948085936</v>
       </c>
       <c r="G3">
-        <v>35.99274089236751</v>
+        <v>35.41892020072914</v>
       </c>
       <c r="H3">
-        <v>1.786500834790527</v>
+        <v>1.783752685037568</v>
       </c>
       <c r="I3">
-        <v>3.425110645587072</v>
+        <v>3.165692945162076</v>
       </c>
       <c r="J3">
-        <v>11.7406317059071</v>
+        <v>12.02556662357161</v>
       </c>
       <c r="K3">
-        <v>14.55626727842313</v>
+        <v>13.8871131510015</v>
       </c>
       <c r="L3">
-        <v>7.14457229327401</v>
+        <v>11.44356219236827</v>
       </c>
       <c r="M3">
-        <v>17.17324555163661</v>
+        <v>9.088299941011384</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.143888277915231</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.17877782426319</v>
       </c>
       <c r="P3">
-        <v>13.01302766225994</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.84513488501736</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.678056432818062</v>
+        <v>5.704915379463156</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.036590253422228</v>
+        <v>6.056897724259752</v>
       </c>
       <c r="E4">
-        <v>10.54897850709385</v>
+        <v>10.56324807202536</v>
       </c>
       <c r="F4">
-        <v>28.45171646863107</v>
+        <v>28.37649875117717</v>
       </c>
       <c r="G4">
-        <v>35.10290326602241</v>
+        <v>34.58191116680396</v>
       </c>
       <c r="H4">
-        <v>1.973407215583569</v>
+        <v>1.965367213667614</v>
       </c>
       <c r="I4">
-        <v>3.490732879814518</v>
+        <v>3.22049017146527</v>
       </c>
       <c r="J4">
-        <v>11.63553912559408</v>
+        <v>11.89637500888744</v>
       </c>
       <c r="K4">
-        <v>14.65658854157901</v>
+        <v>13.9871136739843</v>
       </c>
       <c r="L4">
-        <v>6.985306390555325</v>
+        <v>11.55191080268498</v>
       </c>
       <c r="M4">
-        <v>16.38106365556715</v>
+        <v>9.176337076070828</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.9875649961711</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.37052383871694</v>
       </c>
       <c r="P4">
-        <v>13.11184091039275</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.93880172623256</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.565162528346343</v>
+        <v>5.618666086394163</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.953911053455525</v>
+        <v>5.973450660960959</v>
       </c>
       <c r="E5">
-        <v>10.39659220536483</v>
+        <v>10.41193807992918</v>
       </c>
       <c r="F5">
-        <v>28.18850306983904</v>
+        <v>28.12034051943002</v>
       </c>
       <c r="G5">
-        <v>34.7261876540292</v>
+        <v>34.22872727031015</v>
       </c>
       <c r="H5">
-        <v>2.051206898239115</v>
+        <v>2.04097025049038</v>
       </c>
       <c r="I5">
-        <v>3.521056082924452</v>
+        <v>3.246856886839293</v>
       </c>
       <c r="J5">
-        <v>11.59122896575122</v>
+        <v>11.84155569487482</v>
       </c>
       <c r="K5">
-        <v>14.69303814899213</v>
+        <v>14.02367722221576</v>
       </c>
       <c r="L5">
-        <v>6.918983313771082</v>
+        <v>11.59223094525551</v>
       </c>
       <c r="M5">
-        <v>16.05259484176115</v>
+        <v>9.213608627860225</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.922487001059372</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.03482054606639</v>
       </c>
       <c r="P5">
-        <v>13.15170989193999</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.97671464476808</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.530959386803326</v>
+        <v>5.59123722434818</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.941903804466724</v>
+        <v>5.96118124924547</v>
       </c>
       <c r="E6">
-        <v>10.37183466649249</v>
+        <v>10.38730927230508</v>
       </c>
       <c r="F6">
-        <v>28.13663986877846</v>
+        <v>28.07024211118107</v>
       </c>
       <c r="G6">
-        <v>34.6488898746597</v>
+        <v>34.15645431051581</v>
       </c>
       <c r="H6">
-        <v>2.064320128738398</v>
+        <v>2.053704179503562</v>
       </c>
       <c r="I6">
-        <v>3.52975352376377</v>
+        <v>3.255544801599921</v>
       </c>
       <c r="J6">
-        <v>11.58106936997903</v>
+        <v>11.82981219711404</v>
       </c>
       <c r="K6">
-        <v>14.69328082480526</v>
+        <v>14.02440265633624</v>
       </c>
       <c r="L6">
-        <v>6.907672623977219</v>
+        <v>11.59261970174928</v>
       </c>
       <c r="M6">
-        <v>16.00331774082515</v>
+        <v>9.21842737502713</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.911404367507873</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.98390873044012</v>
       </c>
       <c r="P6">
-        <v>13.15743922580396</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.98223791670167</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.635856168277265</v>
+        <v>5.672975597261242</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.040386712924888</v>
+        <v>6.065956544003967</v>
       </c>
       <c r="E7">
-        <v>10.54899287572019</v>
+        <v>10.56506420782678</v>
       </c>
       <c r="F7">
-        <v>28.42636731757524</v>
+        <v>28.32672324025472</v>
       </c>
       <c r="G7">
-        <v>35.0584555936727</v>
+        <v>34.61618444156808</v>
       </c>
       <c r="H7">
-        <v>1.974717483272719</v>
+        <v>1.967602098648318</v>
       </c>
       <c r="I7">
-        <v>3.500686201228415</v>
+        <v>3.232368513729411</v>
       </c>
       <c r="J7">
-        <v>11.62719976696878</v>
+        <v>11.83212050927853</v>
       </c>
       <c r="K7">
-        <v>14.64117009766031</v>
+        <v>13.97043255037862</v>
       </c>
       <c r="L7">
-        <v>6.983814483883929</v>
+        <v>11.53268830434667</v>
       </c>
       <c r="M7">
-        <v>16.392385070475</v>
+        <v>9.171081752703191</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.985096127984431</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.36680108191171</v>
       </c>
       <c r="P7">
-        <v>13.10995936246612</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.93679707423075</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.102684607818828</v>
+        <v>6.02957096451133</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.454177551753372</v>
+        <v>6.495364965960443</v>
       </c>
       <c r="E8">
-        <v>11.29627421108757</v>
+        <v>11.31134560170395</v>
       </c>
       <c r="F8">
-        <v>29.71402970894404</v>
+        <v>29.52218451062773</v>
       </c>
       <c r="G8">
-        <v>36.88426984821916</v>
+        <v>36.50286912480083</v>
       </c>
       <c r="H8">
-        <v>1.592593706210136</v>
+        <v>1.598431093736691</v>
       </c>
       <c r="I8">
-        <v>3.369644414228896</v>
+        <v>3.124691964771884</v>
       </c>
       <c r="J8">
-        <v>11.84568168640338</v>
+        <v>11.97114172618233</v>
       </c>
       <c r="K8">
-        <v>14.4295627499204</v>
+        <v>13.75424054252905</v>
       </c>
       <c r="L8">
-        <v>7.309440329938176</v>
+        <v>11.30543163263436</v>
       </c>
       <c r="M8">
-        <v>18.00202420875198</v>
+        <v>8.990358184647349</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.302514025133362</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>17.97975040921191</v>
       </c>
       <c r="P8">
-        <v>12.90590189324621</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.74323104902431</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.952291823815934</v>
+        <v>6.665838544226226</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.196760512048321</v>
+        <v>7.248689725759331</v>
       </c>
       <c r="E9">
-        <v>12.6375262572894</v>
+        <v>12.64514223895364</v>
       </c>
       <c r="F9">
-        <v>32.21466781986073</v>
+        <v>31.930445120715</v>
       </c>
       <c r="G9">
-        <v>40.43253154004981</v>
+        <v>39.92470180513718</v>
       </c>
       <c r="H9">
-        <v>2.21576054569264</v>
+        <v>2.189455218517205</v>
       </c>
       <c r="I9">
-        <v>3.120254982532776</v>
+        <v>2.916395691533043</v>
       </c>
       <c r="J9">
-        <v>12.31395801383702</v>
+        <v>12.45925589163903</v>
       </c>
       <c r="K9">
-        <v>14.05309117094525</v>
+        <v>13.37039816252048</v>
       </c>
       <c r="L9">
-        <v>7.907583433864584</v>
+        <v>10.94183206172688</v>
       </c>
       <c r="M9">
-        <v>20.80701986445141</v>
+        <v>8.737294258706649</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.889195333405429</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>20.83258424457238</v>
       </c>
       <c r="P9">
-        <v>12.51938405170916</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.37991420152454</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.493849831212941</v>
+        <v>7.095648016206512</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.625711777076629</v>
+        <v>7.710883880680035</v>
       </c>
       <c r="E10">
-        <v>13.32655928063226</v>
+        <v>13.33797034246162</v>
       </c>
       <c r="F10">
-        <v>33.75366799797732</v>
+        <v>33.27531655114697</v>
       </c>
       <c r="G10">
-        <v>42.64610675945503</v>
+        <v>42.45072455655288</v>
       </c>
       <c r="H10">
-        <v>2.675876448223739</v>
+        <v>2.63078530081051</v>
       </c>
       <c r="I10">
-        <v>2.958958312686621</v>
+        <v>2.786758494096699</v>
       </c>
       <c r="J10">
-        <v>12.60958170293953</v>
+        <v>12.45465317179409</v>
       </c>
       <c r="K10">
-        <v>13.75308475276823</v>
+        <v>13.05634838415608</v>
       </c>
       <c r="L10">
-        <v>8.20708847073133</v>
+        <v>10.68101716143886</v>
       </c>
       <c r="M10">
-        <v>22.60060667534911</v>
+        <v>8.573760895051171</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.176129884149276</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>22.59021387008907</v>
       </c>
       <c r="P10">
-        <v>12.2400673216646</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.12153910573998</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.804640638194979</v>
+        <v>7.466147973219342</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.141232655532395</v>
+        <v>7.274498688589199</v>
       </c>
       <c r="E11">
-        <v>11.769501266976</v>
+        <v>11.790199482948</v>
       </c>
       <c r="F11">
-        <v>32.35260953326702</v>
+        <v>31.61346224421012</v>
       </c>
       <c r="G11">
-        <v>41.00645869298347</v>
+        <v>41.65234751994044</v>
       </c>
       <c r="H11">
-        <v>3.389461198882987</v>
+        <v>3.344565349253782</v>
       </c>
       <c r="I11">
-        <v>2.929860779154359</v>
+        <v>2.772983680294909</v>
       </c>
       <c r="J11">
-        <v>12.20871774431508</v>
+        <v>11.45707808016696</v>
       </c>
       <c r="K11">
-        <v>13.42027333008816</v>
+        <v>12.7555719881881</v>
       </c>
       <c r="L11">
-        <v>7.4134975558636</v>
+        <v>10.47413468292554</v>
       </c>
       <c r="M11">
-        <v>22.72932461382219</v>
+        <v>8.357120149945251</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.371478215346255</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>22.57506763467775</v>
       </c>
       <c r="P11">
-        <v>12.13097000049719</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.04503936462802</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.010763441280336</v>
+        <v>7.72791812459633</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.639676286869485</v>
+        <v>6.788409568774488</v>
       </c>
       <c r="E12">
-        <v>10.36975094116802</v>
+        <v>10.38775143294263</v>
       </c>
       <c r="F12">
-        <v>30.84915392522068</v>
+        <v>30.01063114723168</v>
       </c>
       <c r="G12">
-        <v>39.17317181777987</v>
+        <v>40.23178877938059</v>
       </c>
       <c r="H12">
-        <v>4.497704774831867</v>
+        <v>4.462615760642334</v>
       </c>
       <c r="I12">
-        <v>2.920916042031436</v>
+        <v>2.766541944525342</v>
       </c>
       <c r="J12">
-        <v>11.81052089540046</v>
+        <v>10.82248706594272</v>
       </c>
       <c r="K12">
-        <v>13.23656036181532</v>
+        <v>12.60610798222633</v>
       </c>
       <c r="L12">
-        <v>6.760740842723393</v>
+        <v>10.38420009012355</v>
       </c>
       <c r="M12">
-        <v>22.4512832157225</v>
+        <v>8.232283616218471</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.715637576560342</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>22.22121234651224</v>
       </c>
       <c r="P12">
-        <v>12.1146739236188</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.05169297966099</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.106726091092979</v>
+        <v>7.87834725406441</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.0904747191983</v>
+        <v>6.220295533202891</v>
       </c>
       <c r="E13">
-        <v>9.010404546192314</v>
+        <v>9.013876239376694</v>
       </c>
       <c r="F13">
-        <v>29.11686104299801</v>
+        <v>28.35262996019623</v>
       </c>
       <c r="G13">
-        <v>36.98224570857167</v>
+        <v>37.99307213869695</v>
       </c>
       <c r="H13">
-        <v>5.719414534282592</v>
+        <v>5.694754040637486</v>
       </c>
       <c r="I13">
-        <v>2.941748472795064</v>
+        <v>2.782665524681721</v>
       </c>
       <c r="J13">
-        <v>11.37541250175265</v>
+        <v>10.50954181641406</v>
       </c>
       <c r="K13">
-        <v>13.13268898152322</v>
+        <v>12.54331357521927</v>
       </c>
       <c r="L13">
-        <v>6.192425007323195</v>
+        <v>10.35022804554051</v>
       </c>
       <c r="M13">
-        <v>21.8533134950253</v>
+        <v>8.162235021646589</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.151920257997968</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>21.61765460436226</v>
       </c>
       <c r="P13">
-        <v>12.16279330346578</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.11019882831135</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.116326595821072</v>
+        <v>7.927120157913628</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.683303424106493</v>
+        <v>5.785708217678728</v>
       </c>
       <c r="E14">
-        <v>8.111273879107589</v>
+        <v>8.100897498570783</v>
       </c>
       <c r="F14">
-        <v>27.78355923180451</v>
+        <v>27.14664420767262</v>
       </c>
       <c r="G14">
-        <v>35.2564092112278</v>
+        <v>36.03267633109283</v>
       </c>
       <c r="H14">
-        <v>6.616411795183599</v>
+        <v>6.59813483138261</v>
       </c>
       <c r="I14">
-        <v>2.972692456569397</v>
+        <v>2.807735607009055</v>
       </c>
       <c r="J14">
-        <v>11.05198579394091</v>
+        <v>10.41660455903129</v>
       </c>
       <c r="K14">
-        <v>13.09488490942446</v>
+        <v>12.53457275630648</v>
       </c>
       <c r="L14">
-        <v>5.862929607293522</v>
+        <v>10.34575703584984</v>
       </c>
       <c r="M14">
-        <v>21.28560267262047</v>
+        <v>8.13842322338385</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.828782625533769</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>21.07613901036602</v>
       </c>
       <c r="P14">
-        <v>12.22593652766013</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.17265696105766</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.081952590099974</v>
+        <v>7.904253883882998</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.57403742680424</v>
+        <v>5.664093760792758</v>
       </c>
       <c r="E15">
-        <v>7.89434670986927</v>
+        <v>7.880073394475145</v>
       </c>
       <c r="F15">
-        <v>27.40447905861651</v>
+        <v>26.83081293725627</v>
       </c>
       <c r="G15">
-        <v>34.7475354121767</v>
+        <v>35.38196166074432</v>
       </c>
       <c r="H15">
-        <v>6.819693303668068</v>
+        <v>6.80330007859374</v>
       </c>
       <c r="I15">
-        <v>2.991123588149408</v>
+        <v>2.824072804184589</v>
       </c>
       <c r="J15">
-        <v>10.9640560131219</v>
+        <v>10.44567332529776</v>
       </c>
       <c r="K15">
-        <v>13.09785384372573</v>
+        <v>12.54561132553828</v>
       </c>
       <c r="L15">
-        <v>5.790269347879843</v>
+        <v>10.35140408504119</v>
       </c>
       <c r="M15">
-        <v>21.08118763467097</v>
+        <v>8.141826868443713</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.758845210091259</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>20.89084331778616</v>
       </c>
       <c r="P15">
-        <v>12.25321421207707</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.19663181018715</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.829054183068374</v>
+        <v>7.662704052572117</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.476379531710251</v>
+        <v>5.520466742055266</v>
       </c>
       <c r="E16">
-        <v>7.802409788441239</v>
+        <v>7.784955114481152</v>
       </c>
       <c r="F16">
-        <v>27.01632304267474</v>
+        <v>26.70578915313678</v>
       </c>
       <c r="G16">
-        <v>34.11184372737729</v>
+        <v>34.0466488348186</v>
       </c>
       <c r="H16">
-        <v>6.532395496941451</v>
+        <v>6.52112111203066</v>
       </c>
       <c r="I16">
-        <v>3.060806883814244</v>
+        <v>2.880547590413685</v>
       </c>
       <c r="J16">
-        <v>10.91316674395613</v>
+        <v>10.90380383269684</v>
       </c>
       <c r="K16">
-        <v>13.23862538242815</v>
+        <v>12.68982795779507</v>
       </c>
       <c r="L16">
-        <v>5.757977122439694</v>
+        <v>10.431264352595</v>
       </c>
       <c r="M16">
-        <v>20.42839977358823</v>
+        <v>8.246992733803188</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.736603601946354</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>20.34606890834717</v>
       </c>
       <c r="P16">
-        <v>12.35296947670746</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.27124822595648</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.623107297639102</v>
+        <v>7.449720629920201</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.623761822428854</v>
+        <v>5.651704481605635</v>
       </c>
       <c r="E17">
-        <v>8.202472152389866</v>
+        <v>8.187615060053476</v>
       </c>
       <c r="F17">
-        <v>27.44691050378489</v>
+        <v>27.23849133650456</v>
       </c>
       <c r="G17">
-        <v>34.57410033074959</v>
+        <v>34.19788262907223</v>
       </c>
       <c r="H17">
-        <v>5.7818981916499</v>
+        <v>5.771909086860237</v>
       </c>
       <c r="I17">
-        <v>3.09871985505929</v>
+        <v>2.911810866007827</v>
       </c>
       <c r="J17">
-        <v>11.04827403771277</v>
+        <v>11.24976519630543</v>
       </c>
       <c r="K17">
-        <v>13.3651118461504</v>
+        <v>12.80548176912839</v>
       </c>
       <c r="L17">
-        <v>5.894861953329763</v>
+        <v>10.50338912437037</v>
       </c>
       <c r="M17">
-        <v>20.23550837166012</v>
+        <v>8.33522939134464</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.877598738431102</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>20.20661599055868</v>
       </c>
       <c r="P17">
-        <v>12.3969757314053</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.3013011690906</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.46782844566624</v>
+        <v>7.259422574153647</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.00443619976947</v>
+        <v>6.030416318680785</v>
       </c>
       <c r="E18">
-        <v>9.169833402721046</v>
+        <v>9.15941459779863</v>
       </c>
       <c r="F18">
-        <v>28.64196917886845</v>
+        <v>28.45643080028218</v>
       </c>
       <c r="G18">
-        <v>36.05311233077633</v>
+        <v>35.51948332481811</v>
       </c>
       <c r="H18">
-        <v>4.590379201114703</v>
+        <v>4.578593812557212</v>
       </c>
       <c r="I18">
-        <v>3.102628945047065</v>
+        <v>2.911701217683595</v>
       </c>
       <c r="J18">
-        <v>11.36204887549756</v>
+        <v>11.64269712266673</v>
       </c>
       <c r="K18">
-        <v>13.50844889811732</v>
+        <v>12.92484811193619</v>
       </c>
       <c r="L18">
-        <v>6.271145090932081</v>
+        <v>10.58730332894713</v>
       </c>
       <c r="M18">
-        <v>20.41714862575888</v>
+        <v>8.427157243467127</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.254847049741293</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>20.42331356258593</v>
       </c>
       <c r="P18">
-        <v>12.40394446902986</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.29852250370343</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.307278003277541</v>
+        <v>7.047680810376129</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.55672379333985</v>
+        <v>6.58815132787988</v>
       </c>
       <c r="E19">
-        <v>10.61336145506588</v>
+        <v>10.60770160143287</v>
       </c>
       <c r="F19">
-        <v>30.31655681306727</v>
+        <v>30.11119552283913</v>
       </c>
       <c r="G19">
-        <v>38.15375621686583</v>
+        <v>37.54156874610594</v>
       </c>
       <c r="H19">
-        <v>3.305528286616716</v>
+        <v>3.287457806034599</v>
       </c>
       <c r="I19">
-        <v>3.09763852640531</v>
+        <v>2.909200377136635</v>
       </c>
       <c r="J19">
-        <v>11.78267384015857</v>
+        <v>12.07455482984809</v>
       </c>
       <c r="K19">
-        <v>13.64343576985721</v>
+        <v>13.02901370039901</v>
       </c>
       <c r="L19">
-        <v>6.902523042166552</v>
+        <v>10.66584746150682</v>
       </c>
       <c r="M19">
-        <v>20.90824095659387</v>
+        <v>8.507543360517616</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.885172600214105</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>20.93952244773308</v>
       </c>
       <c r="P19">
-        <v>12.39011705200427</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.27665144071904</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.25791191209255</v>
+        <v>6.889589300877947</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.523988560155995</v>
+        <v>7.582968573882197</v>
       </c>
       <c r="E20">
-        <v>13.14432649337497</v>
+        <v>13.14855362896421</v>
       </c>
       <c r="F20">
-        <v>33.28425777696516</v>
+        <v>32.9420738584785</v>
       </c>
       <c r="G20">
-        <v>41.95410889107609</v>
+        <v>41.4529458728841</v>
       </c>
       <c r="H20">
-        <v>2.55400060414705</v>
+        <v>2.516720147575829</v>
       </c>
       <c r="I20">
-        <v>3.031433529617038</v>
+        <v>2.856081338897228</v>
       </c>
       <c r="J20">
-        <v>12.50628315382117</v>
+        <v>12.61834710243639</v>
       </c>
       <c r="K20">
-        <v>13.78319701116669</v>
+        <v>13.10753712264901</v>
       </c>
       <c r="L20">
-        <v>8.123057243873006</v>
+        <v>10.7242318104098</v>
       </c>
       <c r="M20">
-        <v>22.17569739887464</v>
+        <v>8.588011542042288</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.098561021486777</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>22.2100395927914</v>
       </c>
       <c r="P20">
-        <v>12.30834929732364</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.18599182511144</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.650910514312537</v>
+        <v>7.242210517699236</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.960974576078734</v>
+        <v>8.133320644104563</v>
       </c>
       <c r="E21">
-        <v>13.99226079938887</v>
+        <v>14.03129630038446</v>
       </c>
       <c r="F21">
-        <v>34.83228258252635</v>
+        <v>33.91555160220386</v>
       </c>
       <c r="G21">
-        <v>44.11595145636593</v>
+        <v>45.03958170327331</v>
       </c>
       <c r="H21">
-        <v>2.930263389685773</v>
+        <v>2.86387263932578</v>
       </c>
       <c r="I21">
-        <v>2.901277162002162</v>
+        <v>2.754065209055625</v>
       </c>
       <c r="J21">
-        <v>12.83763111209703</v>
+        <v>11.75972514101263</v>
       </c>
       <c r="K21">
-        <v>13.5974215574259</v>
+        <v>12.85897761603006</v>
       </c>
       <c r="L21">
-        <v>8.520548242830239</v>
+        <v>10.5379539211478</v>
       </c>
       <c r="M21">
-        <v>23.6025425405208</v>
+        <v>8.462629331634167</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.470679641015053</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>23.42019908236781</v>
       </c>
       <c r="P21">
-        <v>12.09590971657683</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.99003190186288</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.938360858806652</v>
+        <v>7.508821198838027</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.193370454138318</v>
+        <v>8.444020225802594</v>
       </c>
       <c r="E22">
-        <v>14.41607944118516</v>
+        <v>14.47996793954972</v>
       </c>
       <c r="F22">
-        <v>35.73147318261504</v>
+        <v>34.41770685515294</v>
       </c>
       <c r="G22">
-        <v>45.39589425564448</v>
+        <v>47.31525377540703</v>
       </c>
       <c r="H22">
-        <v>3.162164107625449</v>
+        <v>3.077096222093571</v>
       </c>
       <c r="I22">
-        <v>2.807291692258498</v>
+        <v>2.675737184991171</v>
       </c>
       <c r="J22">
-        <v>13.03456955282367</v>
+        <v>11.13267835068913</v>
       </c>
       <c r="K22">
-        <v>13.48590844013466</v>
+        <v>12.70125713949144</v>
       </c>
       <c r="L22">
-        <v>8.717654281954101</v>
+        <v>10.42848231815258</v>
       </c>
       <c r="M22">
-        <v>24.44655392499372</v>
+        <v>8.39122556528776</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.650958785830309</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>24.11520060525285</v>
       </c>
       <c r="P22">
-        <v>11.95957677851859</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.86699848293253</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.821913350814736</v>
+        <v>7.391315724850093</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.065577731392382</v>
+        <v>8.262826442065554</v>
       </c>
       <c r="E23">
-        <v>14.1892762550109</v>
+        <v>14.2356114954925</v>
       </c>
       <c r="F23">
-        <v>35.27329782025784</v>
+        <v>34.22711823153291</v>
       </c>
       <c r="G23">
-        <v>44.75071983397513</v>
+        <v>45.97175374013158</v>
       </c>
       <c r="H23">
-        <v>3.038955418349926</v>
+        <v>2.965516077486795</v>
       </c>
       <c r="I23">
-        <v>2.845163031507237</v>
+        <v>2.702375895662797</v>
       </c>
       <c r="J23">
-        <v>12.93720718409234</v>
+        <v>11.59995686480509</v>
       </c>
       <c r="K23">
-        <v>13.56338743682237</v>
+        <v>12.80470641704296</v>
       </c>
       <c r="L23">
-        <v>8.613475874201921</v>
+        <v>10.49714225600656</v>
       </c>
       <c r="M23">
-        <v>23.98602341845845</v>
+        <v>8.447728761250744</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.55772864533189</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>23.76111395789725</v>
       </c>
       <c r="P23">
-        <v>12.03393204481884</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.93234715842728</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.297170030340366</v>
+        <v>6.916249653108235</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.573402374988556</v>
+        <v>7.632753867696014</v>
       </c>
       <c r="E24">
-        <v>13.30506202178664</v>
+        <v>13.3096697660049</v>
       </c>
       <c r="F24">
-        <v>33.48315438551936</v>
+        <v>33.13976802397619</v>
       </c>
       <c r="G24">
-        <v>42.21710405006628</v>
+        <v>41.69422489734302</v>
       </c>
       <c r="H24">
-        <v>2.564304069068875</v>
+        <v>2.526883055648101</v>
       </c>
       <c r="I24">
-        <v>3.012384483138404</v>
+        <v>2.833297240483977</v>
       </c>
       <c r="J24">
-        <v>12.56200451027864</v>
+        <v>12.68125474415057</v>
       </c>
       <c r="K24">
-        <v>13.83034704198963</v>
+        <v>13.14557465402924</v>
       </c>
       <c r="L24">
-        <v>8.207955191630868</v>
+        <v>10.75198825062945</v>
       </c>
       <c r="M24">
-        <v>22.19284381879047</v>
+        <v>8.61847968522968</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.183437538325668</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>22.23259666288216</v>
       </c>
       <c r="P24">
-        <v>12.31412859648959</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.18907463989322</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.67433853386257</v>
+        <v>6.446125357719194</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.010301092447846</v>
+        <v>7.051688057374814</v>
       </c>
       <c r="E25">
-        <v>12.29112609831504</v>
+        <v>12.29795100225237</v>
       </c>
       <c r="F25">
-        <v>31.51096806562773</v>
+        <v>31.28879542791735</v>
       </c>
       <c r="G25">
-        <v>39.42247952111486</v>
+        <v>38.85167484032128</v>
       </c>
       <c r="H25">
-        <v>2.034276883437482</v>
+        <v>2.014745351923343</v>
       </c>
       <c r="I25">
-        <v>3.202263306544811</v>
+        <v>2.99020545651433</v>
       </c>
       <c r="J25">
-        <v>12.17134233018771</v>
+        <v>12.39180100396602</v>
       </c>
       <c r="K25">
-        <v>14.12591520741273</v>
+        <v>13.45358572455198</v>
       </c>
       <c r="L25">
-        <v>7.749400952381384</v>
+        <v>11.01776014074567</v>
       </c>
       <c r="M25">
-        <v>20.10624480768689</v>
+        <v>8.782919635909273</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.73541509114431</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>20.13493589316206</v>
       </c>
       <c r="P25">
-        <v>12.61971599448305</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.47493408709524</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
